--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1517"/>
+  <dimension ref="A1:H1518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49445,6 +49445,40 @@
         </is>
       </c>
     </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B1518" t="inlineStr">
+        <is>
+          <t>ZA</t>
+        </is>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
+        </is>
+      </c>
+      <c r="D1518" t="inlineStr"/>
+      <c r="E1518" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F1518" t="inlineStr"/>
+      <c r="G1518" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="H1518" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1518"/>
+  <dimension ref="A1:H1498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39645,10 +39645,8 @@
       </c>
       <c r="F1218" t="inlineStr"/>
       <c r="G1218" t="inlineStr"/>
-      <c r="H1218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1219">
@@ -39687,10 +39685,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1219" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1219" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1220">
@@ -39729,10 +39725,8 @@
           <t>4.1%</t>
         </is>
       </c>
-      <c r="H1220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1220" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1221">
@@ -39771,10 +39765,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1222">
@@ -39813,10 +39805,8 @@
           <t>3.7%</t>
         </is>
       </c>
-      <c r="H1222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1223">
@@ -39851,10 +39841,8 @@
           <t>€33.0B</t>
         </is>
       </c>
-      <c r="H1223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1224">
@@ -39889,10 +39877,8 @@
         </is>
       </c>
       <c r="G1224" t="inlineStr"/>
-      <c r="H1224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1225">
@@ -39927,10 +39913,8 @@
           <t>-27.2%</t>
         </is>
       </c>
-      <c r="H1225" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1225" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1226">
@@ -39969,10 +39953,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1226" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1226" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1227">
@@ -40011,10 +39993,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1228">
@@ -40053,10 +40033,8 @@
           <t>127.08</t>
         </is>
       </c>
-      <c r="H1228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1229">
@@ -40095,10 +40073,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1230">
@@ -40121,10 +40097,8 @@
       <c r="E1230" t="inlineStr"/>
       <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr"/>
-      <c r="H1230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1231">
@@ -40159,10 +40133,8 @@
           <t>€2900.0M</t>
         </is>
       </c>
-      <c r="H1231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1232">
@@ -40185,10 +40157,8 @@
       <c r="E1232" t="inlineStr"/>
       <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr"/>
-      <c r="H1232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1233">
@@ -40219,10 +40189,8 @@
       </c>
       <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="inlineStr"/>
-      <c r="H1233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1234">
@@ -40253,10 +40221,8 @@
       </c>
       <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr"/>
-      <c r="H1234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1235">
@@ -40287,10 +40253,8 @@
       </c>
       <c r="F1235" t="inlineStr"/>
       <c r="G1235" t="inlineStr"/>
-      <c r="H1235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1236">
@@ -40325,10 +40289,8 @@
         </is>
       </c>
       <c r="G1236" t="inlineStr"/>
-      <c r="H1236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1237">
@@ -40359,10 +40321,8 @@
       </c>
       <c r="F1237" t="inlineStr"/>
       <c r="G1237" t="inlineStr"/>
-      <c r="H1237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1238">
@@ -40401,10 +40361,8 @@
           <t>1.48M</t>
         </is>
       </c>
-      <c r="H1238" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1238" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1239">
@@ -40443,10 +40401,8 @@
           <t>1.32M</t>
         </is>
       </c>
-      <c r="H1239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1240">
@@ -40481,10 +40437,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="H1240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1241">
@@ -40519,10 +40473,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H1241" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1241" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1242">
@@ -40545,10 +40497,8 @@
       <c r="E1242" t="inlineStr"/>
       <c r="F1242" t="inlineStr"/>
       <c r="G1242" t="inlineStr"/>
-      <c r="H1242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1243">
@@ -40587,10 +40537,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1244">
@@ -40629,10 +40577,8 @@
           <t>76.9%</t>
         </is>
       </c>
-      <c r="H1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1245">
@@ -40667,10 +40613,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1246">
@@ -40709,10 +40653,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1247">
@@ -40747,10 +40689,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1247" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1248">
@@ -40781,10 +40721,8 @@
       </c>
       <c r="F1248" t="inlineStr"/>
       <c r="G1248" t="inlineStr"/>
-      <c r="H1248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1249">
@@ -40815,10 +40753,8 @@
       </c>
       <c r="F1249" t="inlineStr"/>
       <c r="G1249" t="inlineStr"/>
-      <c r="H1249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1250">
@@ -40853,10 +40789,8 @@
         </is>
       </c>
       <c r="G1250" t="inlineStr"/>
-      <c r="H1250" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1250" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1251">
@@ -40887,10 +40821,8 @@
       </c>
       <c r="F1251" t="inlineStr"/>
       <c r="G1251" t="inlineStr"/>
-      <c r="H1251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1252">
@@ -40921,10 +40853,8 @@
       </c>
       <c r="F1252" t="inlineStr"/>
       <c r="G1252" t="inlineStr"/>
-      <c r="H1252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1253">
@@ -40973,10 +40903,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1255">
@@ -41011,10 +40939,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1256">
@@ -41049,10 +40975,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1256" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1257">
@@ -41087,10 +41011,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1258">
@@ -41121,10 +41043,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1259">
@@ -41159,10 +41079,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1260">
@@ -41193,10 +41111,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1261">
@@ -41231,10 +41147,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1262">
@@ -41261,10 +41175,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1263">
@@ -41283,10 +41195,8 @@
       <c r="E1263" t="inlineStr"/>
       <c r="F1263" t="inlineStr"/>
       <c r="G1263" t="inlineStr"/>
-      <c r="H1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1264">
@@ -41331,10 +41241,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1266">
@@ -41369,10 +41277,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41403,10 +41309,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41437,10 +41341,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41467,10 +41369,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41497,10 +41397,8 @@
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41531,10 +41429,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41565,10 +41461,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1273">
@@ -41595,10 +41489,8 @@
       </c>
       <c r="F1273" t="inlineStr"/>
       <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41625,10 +41517,8 @@
       </c>
       <c r="F1274" t="inlineStr"/>
       <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41655,10 +41545,8 @@
       </c>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41681,10 +41569,8 @@
       <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
       <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1277">
@@ -41715,10 +41601,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41749,10 +41633,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41787,10 +41669,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41821,10 +41701,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41855,10 +41733,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41885,10 +41761,8 @@
       </c>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41911,10 +41785,8 @@
       </c>
       <c r="F1283" t="inlineStr"/>
       <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41941,10 +41813,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41963,10 +41833,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41993,10 +41861,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -42023,10 +41889,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -42045,10 +41909,8 @@
       <c r="E1288" t="inlineStr"/>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -42067,10 +41929,8 @@
       <c r="E1289" t="inlineStr"/>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
@@ -42111,10 +41971,8 @@
       </c>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1292">
@@ -42141,10 +41999,8 @@
       </c>
       <c r="F1292" t="inlineStr"/>
       <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1293">
@@ -42175,10 +42031,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -42213,10 +42067,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1295">
@@ -42251,10 +42103,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1296">
@@ -42285,10 +42135,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1297">
@@ -42323,10 +42171,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42361,10 +42207,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42395,10 +42239,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -42429,10 +42271,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1301">
@@ -42463,10 +42303,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42497,10 +42335,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42535,10 +42371,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1304">
@@ -42573,10 +42407,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1305">
@@ -42611,10 +42443,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42641,10 +42471,8 @@
       </c>
       <c r="F1306" t="inlineStr"/>
       <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -42671,10 +42499,8 @@
       </c>
       <c r="F1307" t="inlineStr"/>
       <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1308">
@@ -42705,10 +42531,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1309">
@@ -42739,10 +42563,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42777,10 +42599,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1311">
@@ -42811,10 +42631,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1312">
@@ -42849,10 +42667,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1313">
@@ -42883,10 +42699,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42921,10 +42735,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42959,10 +42771,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42989,10 +42799,8 @@
       </c>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -43019,10 +42827,8 @@
       </c>
       <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -43049,10 +42855,8 @@
       </c>
       <c r="F1318" t="inlineStr"/>
       <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43079,10 +42883,8 @@
       </c>
       <c r="F1319" t="inlineStr"/>
       <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43113,10 +42915,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43147,10 +42947,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -43199,10 +42997,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43233,10 +43029,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1325">
@@ -43267,10 +43061,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1326">
@@ -43301,10 +43093,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43335,10 +43125,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43365,10 +43153,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43399,10 +43185,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43433,10 +43217,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43463,10 +43245,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43493,10 +43273,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43523,10 +43301,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43553,10 +43329,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1335">
@@ -43583,10 +43357,8 @@
       </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43613,10 +43385,8 @@
       </c>
       <c r="F1336" t="inlineStr"/>
       <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43643,10 +43413,8 @@
       </c>
       <c r="F1337" t="inlineStr"/>
       <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43673,10 +43441,8 @@
       </c>
       <c r="F1338" t="inlineStr"/>
       <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43707,10 +43473,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43741,10 +43505,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43775,10 +43537,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43809,10 +43569,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43839,10 +43597,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43877,10 +43633,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43903,10 +43657,8 @@
       <c r="E1345" t="inlineStr"/>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43933,10 +43685,8 @@
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1347">
@@ -43963,10 +43713,8 @@
       </c>
       <c r="F1347" t="inlineStr"/>
       <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1348">
@@ -43997,10 +43745,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -44031,10 +43777,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1350">
@@ -44061,10 +43805,8 @@
       </c>
       <c r="F1350" t="inlineStr"/>
       <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44099,10 +43841,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1352">
@@ -44137,10 +43877,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44175,10 +43913,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1354">
@@ -44213,10 +43949,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1355">
@@ -44243,10 +43977,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44281,10 +44013,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44311,10 +44041,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44341,10 +44069,8 @@
       </c>
       <c r="F1358" t="inlineStr"/>
       <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44371,10 +44097,8 @@
       </c>
       <c r="F1359" t="inlineStr"/>
       <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44415,10 +44139,8 @@
       </c>
       <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44449,10 +44171,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44483,10 +44203,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44517,10 +44235,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -44551,10 +44267,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1366">
@@ -44581,10 +44295,8 @@
       </c>
       <c r="F1366" t="inlineStr"/>
       <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44611,10 +44323,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44645,10 +44355,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1369">
@@ -44683,10 +44391,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -44717,10 +44423,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44747,10 +44451,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44777,10 +44479,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44807,10 +44507,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44837,10 +44535,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44867,10 +44563,8 @@
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44897,10 +44591,8 @@
       </c>
       <c r="F1376" t="inlineStr"/>
       <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -44927,10 +44619,8 @@
       </c>
       <c r="F1377" t="inlineStr"/>
       <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -44957,10 +44647,8 @@
       </c>
       <c r="F1378" t="inlineStr"/>
       <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -44991,10 +44679,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -45025,10 +44711,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -45063,10 +44747,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1382">
@@ -45097,10 +44779,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45131,10 +44811,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1384">
@@ -45169,10 +44847,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1385">
@@ -45199,10 +44875,8 @@
       </c>
       <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45233,10 +44907,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45267,10 +44939,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1388">
@@ -45301,10 +44971,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1389">
@@ -45335,10 +45003,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45373,10 +45039,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45411,10 +45075,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1392">
@@ -45437,10 +45099,8 @@
       <c r="E1392" t="inlineStr"/>
       <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -45471,10 +45131,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -45509,10 +45167,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -45543,10 +45199,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -45577,10 +45231,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -45615,10 +45267,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1398">
@@ -45645,10 +45295,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45675,10 +45323,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1400">
@@ -45705,10 +45351,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -45735,10 +45379,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45765,10 +45407,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45795,10 +45435,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45825,10 +45463,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45855,10 +45491,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45885,10 +45519,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45915,10 +45547,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45945,10 +45575,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45975,10 +45603,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -46005,10 +45631,8 @@
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -46035,10 +45659,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46065,10 +45687,8 @@
       </c>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46095,10 +45715,8 @@
       </c>
       <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46129,10 +45747,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46159,10 +45775,8 @@
       </c>
       <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46193,10 +45807,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1417">
@@ -46227,10 +45839,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -46261,10 +45871,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46295,10 +45903,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -46333,10 +45939,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46367,10 +45971,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -46401,10 +46003,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46439,10 +46039,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1424">
@@ -46477,10 +46075,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1425">
@@ -46511,10 +46107,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46545,10 +46139,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46579,10 +46171,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46617,10 +46207,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1429">
@@ -46643,10 +46231,8 @@
       <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1430">
@@ -46673,10 +46259,8 @@
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46699,10 +46283,8 @@
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46729,222 +46311,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
+      <c r="H1433" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46956,33 +46556,29 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1440" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46994,33 +46590,29 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1441" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -47032,67 +46624,67 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr"/>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
@@ -47104,29 +46696,29 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
@@ -47138,33 +46730,33 @@
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
@@ -47176,215 +46768,215 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1446" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
@@ -47396,57 +46988,57 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47456,65 +47048,45 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr">
-        <is>
-          <t>CBI Distributive TradesJAN</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr"/>
+      <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1454" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="E1454" t="inlineStr"/>
+      <c r="F1454" t="inlineStr"/>
+      <c r="G1454" t="inlineStr"/>
+      <c r="H1454" t="inlineStr"/>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>$625.87B</t>
+          <t>-4.7%</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr"/>
+      <c r="G1455" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="H1455" t="inlineStr">
         <is>
           <t>3</t>
@@ -47524,65 +47096,41 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr">
-        <is>
-          <t>CFIB Business BarometerJAN</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr"/>
+      <c r="C1456" t="inlineStr"/>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
       <c r="F1456" t="inlineStr"/>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1456" t="inlineStr"/>
+      <c r="H1456" t="inlineStr"/>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
           <t>3</t>
@@ -47592,31 +47140,27 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
           <t>3</t>
@@ -47626,103 +47170,79 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1459" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>3.46%</t>
+        </is>
+      </c>
+      <c r="F1459" t="inlineStr"/>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1460" t="inlineStr"/>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E1461" t="inlineStr"/>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
           <t>3</t>
@@ -47732,31 +47252,27 @@
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
           <t>2</t>
@@ -47766,249 +47282,209 @@
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1465" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>85.1</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr"/>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>84.4</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1466" t="inlineStr"/>
       <c r="H1466" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1467" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+      <c r="E1467" t="inlineStr"/>
+      <c r="F1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1469" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
@@ -48020,33 +47496,29 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1470" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -48058,35 +47530,27 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1471" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1471" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr"/>
       <c r="H1471" t="inlineStr">
         <is>
           <t>3</t>
@@ -48096,31 +47560,27 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -48130,61 +47590,65 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr"/>
+      <c r="G1474" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1474" t="inlineStr">
         <is>
           <t>3</t>
@@ -48194,7 +47658,7 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
@@ -48204,65 +47668,81 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
+      <c r="G1475" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1476" t="inlineStr"/>
-      <c r="C1476" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1476" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C1476" t="inlineStr">
+        <is>
+          <t>Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
       <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
-      <c r="H1476" t="inlineStr"/>
+      <c r="G1476" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="H1476" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1477" t="inlineStr"/>
       <c r="H1477" t="inlineStr">
         <is>
           <t>3</t>
@@ -48272,39 +47752,47 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1478" t="inlineStr"/>
-      <c r="C1478" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1478" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1478" t="inlineStr">
+        <is>
+          <t>3-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
-      <c r="H1478" t="inlineStr"/>
+      <c r="H1478" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
-      <c r="E1479" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1479" t="inlineStr"/>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
       <c r="H1479" t="inlineStr">
@@ -48316,103 +47804,103 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1480" t="inlineStr"/>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>3.46%</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr"/>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
@@ -48428,55 +47916,47 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
-      <c r="E1484" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1484" t="inlineStr"/>
       <c r="F1484" t="inlineStr"/>
       <c r="G1484" t="inlineStr"/>
       <c r="H1484" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
@@ -48488,87 +47968,91 @@
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr">
-        <is>
-          <t>84.7</t>
-        </is>
-      </c>
+      <c r="E1486" t="inlineStr"/>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1487" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48576,25 +48060,29 @@
       </c>
     </row>
     <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1489" t="inlineStr"/>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
-      <c r="E1489" t="inlineStr"/>
+      <c r="E1489" t="inlineStr">
+        <is>
+          <t>1.493M</t>
+        </is>
+      </c>
       <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
+      <c r="G1489" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -48602,101 +48090,77 @@
       </c>
     </row>
     <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
+      <c r="A1490" t="inlineStr"/>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>43.5K</t>
-        </is>
-      </c>
-      <c r="F1490" t="inlineStr"/>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1491" t="inlineStr">
-        <is>
-          <t>Jobseekers TotalDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr"/>
+      <c r="C1491" t="inlineStr"/>
       <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr">
-        <is>
-          <t>2935K</t>
-        </is>
-      </c>
+      <c r="E1491" t="inlineStr"/>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
+      <c r="H1491" t="inlineStr"/>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48706,27 +48170,31 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr"/>
+      <c r="G1493" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H1493" t="inlineStr">
         <is>
           <t>3</t>
@@ -48736,27 +48204,31 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr"/>
+      <c r="G1494" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1494" t="inlineStr">
         <is>
           <t>3</t>
@@ -48766,63 +48238,63 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H1495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1496" t="inlineStr">
@@ -48834,31 +48306,27 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
+      <c r="G1497" t="inlineStr"/>
       <c r="H1497" t="inlineStr">
         <is>
           <t>2</t>
@@ -48868,614 +48336,34 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1499" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1499" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
-      <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1500" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
-      <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr"/>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1501" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1501" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D1501" t="inlineStr"/>
-      <c r="E1501" t="inlineStr"/>
-      <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1502" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1502" t="inlineStr">
-        <is>
-          <t>New Home SalesDEC</t>
-        </is>
-      </c>
-      <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr"/>
-      <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
-      <c r="H1502" t="inlineStr">
-        <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1503">
-      <c r="A1503" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1503" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1503" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
-      <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1504" t="inlineStr">
-        <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1505" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1505" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr"/>
-      <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
-      <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1508" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr"/>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1509" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1510" t="inlineStr">
-        <is>
-          <t>Unemployment Rate PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr"/>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr">
-        <is>
-          <t>Building Permits FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr"/>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1512" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr"/>
-      <c r="C1513" t="inlineStr"/>
-      <c r="D1513" t="inlineStr"/>
-      <c r="E1513" t="inlineStr"/>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr"/>
-      <c r="H1513" t="inlineStr"/>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr">
-        <is>
-          <t>6-Month T-Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1514" t="inlineStr"/>
-      <c r="E1514" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
-      <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1515" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr">
-        <is>
-          <t>-5.1%</t>
-        </is>
-      </c>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr">
-        <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1517"/>
+  <dimension ref="A1:H1495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41227,10 +41227,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1265">
@@ -41257,10 +41255,8 @@
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -41287,10 +41283,8 @@
       </c>
       <c r="F1266" t="inlineStr"/>
       <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41321,10 +41315,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41355,10 +41347,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41385,10 +41375,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41415,10 +41403,8 @@
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41445,10 +41431,8 @@
       </c>
       <c r="F1271" t="inlineStr"/>
       <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41471,10 +41455,8 @@
       <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1273">
@@ -41505,10 +41487,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41539,10 +41519,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41577,10 +41555,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41611,10 +41587,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -41645,10 +41619,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41675,10 +41647,8 @@
       </c>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41701,10 +41671,8 @@
       </c>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41731,10 +41699,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41753,10 +41719,8 @@
       <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41783,10 +41747,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41813,10 +41775,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41835,10 +41795,8 @@
       <c r="E1284" t="inlineStr"/>
       <c r="F1284" t="inlineStr"/>
       <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41857,10 +41815,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41901,10 +41857,8 @@
       </c>
       <c r="F1287" t="inlineStr"/>
       <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -41931,10 +41885,8 @@
       </c>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -41965,10 +41917,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1290">
@@ -42003,10 +41953,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1290" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1291">
@@ -42041,10 +41989,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1292">
@@ -42075,10 +42021,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1293">
@@ -42113,10 +42057,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1294">
@@ -42151,10 +42093,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1295">
@@ -42185,10 +42125,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1296">
@@ -42219,10 +42157,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1297">
@@ -42253,10 +42189,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42287,10 +42221,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42325,10 +42257,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1300">
@@ -42363,10 +42293,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1301">
@@ -42401,10 +42329,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42431,10 +42357,8 @@
       </c>
       <c r="F1302" t="inlineStr"/>
       <c r="G1302" t="inlineStr"/>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42461,10 +42385,8 @@
       </c>
       <c r="F1303" t="inlineStr"/>
       <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
@@ -42495,10 +42417,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1305">
@@ -42529,10 +42449,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42567,10 +42485,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1307">
@@ -42601,10 +42517,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1308">
@@ -42639,10 +42553,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1309">
@@ -42673,10 +42585,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42711,10 +42621,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1311">
@@ -42749,10 +42657,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1312">
@@ -42779,10 +42685,8 @@
       </c>
       <c r="F1312" t="inlineStr"/>
       <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1313">
@@ -42809,10 +42713,8 @@
       </c>
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42839,10 +42741,8 @@
       </c>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42869,10 +42769,8 @@
       </c>
       <c r="F1315" t="inlineStr"/>
       <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42903,10 +42801,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1317">
@@ -42937,10 +42833,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -42989,10 +42883,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43023,10 +42915,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43057,10 +42947,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1322">
@@ -43091,10 +42979,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1323">
@@ -43125,10 +43011,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43155,10 +43039,8 @@
       </c>
       <c r="F1324" t="inlineStr"/>
       <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1325">
@@ -43189,10 +43071,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1326">
@@ -43223,10 +43103,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43253,10 +43131,8 @@
       </c>
       <c r="F1327" t="inlineStr"/>
       <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43283,10 +43159,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43313,10 +43187,8 @@
       </c>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43343,10 +43215,8 @@
       </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1331">
@@ -43373,10 +43243,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43403,10 +43271,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43433,10 +43299,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43463,10 +43327,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
@@ -43497,10 +43359,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43531,10 +43391,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43565,10 +43423,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43599,10 +43455,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43629,10 +43483,8 @@
       </c>
       <c r="F1339" t="inlineStr"/>
       <c r="G1339" t="inlineStr"/>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43667,10 +43519,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43693,10 +43543,8 @@
       <c r="E1341" t="inlineStr"/>
       <c r="F1341" t="inlineStr"/>
       <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1342">
@@ -43723,10 +43571,8 @@
       </c>
       <c r="F1342" t="inlineStr"/>
       <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43753,10 +43599,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43787,10 +43631,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43821,10 +43663,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43851,10 +43691,8 @@
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1347">
@@ -43889,10 +43727,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1348">
@@ -43927,10 +43763,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -43965,10 +43799,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1350">
@@ -44003,10 +43835,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44033,10 +43863,8 @@
       </c>
       <c r="F1351" t="inlineStr"/>
       <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1352">
@@ -44071,10 +43899,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44101,10 +43927,8 @@
       </c>
       <c r="F1353" t="inlineStr"/>
       <c r="G1353" t="inlineStr"/>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1354">
@@ -44131,10 +43955,8 @@
       </c>
       <c r="F1354" t="inlineStr"/>
       <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1355">
@@ -44161,10 +43983,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44205,10 +44025,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44239,10 +44057,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44273,10 +44089,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44307,10 +44121,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1361">
@@ -44341,10 +44153,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44371,10 +44181,8 @@
       </c>
       <c r="F1362" t="inlineStr"/>
       <c r="G1362" t="inlineStr"/>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44401,10 +44209,8 @@
       </c>
       <c r="F1363" t="inlineStr"/>
       <c r="G1363" t="inlineStr"/>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44435,10 +44241,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1365">
@@ -44473,10 +44277,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1366">
@@ -44507,10 +44309,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44537,10 +44337,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44567,10 +44365,8 @@
       </c>
       <c r="F1368" t="inlineStr"/>
       <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -44597,10 +44393,8 @@
       </c>
       <c r="F1369" t="inlineStr"/>
       <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1370">
@@ -44627,10 +44421,8 @@
       </c>
       <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44657,10 +44449,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44687,10 +44477,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44717,10 +44505,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44747,10 +44533,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44781,10 +44565,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44815,10 +44597,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1377">
@@ -44853,10 +44633,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1378">
@@ -44887,10 +44665,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -44921,10 +44697,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1380">
@@ -44959,10 +44733,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -44989,10 +44761,8 @@
       </c>
       <c r="F1381" t="inlineStr"/>
       <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -45023,10 +44793,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45057,10 +44825,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
@@ -45091,10 +44857,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1385">
@@ -45125,10 +44889,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45163,10 +44925,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1387">
@@ -45201,10 +44961,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1388">
@@ -45227,10 +44985,8 @@
       <c r="E1388" t="inlineStr"/>
       <c r="F1388" t="inlineStr"/>
       <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1389">
@@ -45261,10 +45017,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45299,10 +45053,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45333,10 +45085,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1392">
@@ -45367,10 +45117,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1393">
@@ -45405,10 +45153,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1394">
@@ -45435,10 +45181,8 @@
       </c>
       <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr"/>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1395">
@@ -45465,10 +45209,8 @@
       </c>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1396">
@@ -45495,10 +45237,8 @@
       </c>
       <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1397">
@@ -45525,10 +45265,8 @@
       </c>
       <c r="F1397" t="inlineStr"/>
       <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1398">
@@ -45555,10 +45293,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45585,10 +45321,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -45615,10 +45349,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1401">
@@ -45645,10 +45377,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45675,10 +45405,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45705,10 +45433,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45735,10 +45461,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45765,10 +45489,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45795,10 +45517,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45825,10 +45545,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45855,10 +45573,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45885,10 +45601,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45919,10 +45633,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45949,10 +45661,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -45983,10 +45693,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1413">
@@ -46017,10 +45725,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1414">
@@ -46051,10 +45757,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46085,10 +45789,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1416">
@@ -46123,10 +45825,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1417">
@@ -46157,10 +45857,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -46191,10 +45889,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46229,10 +45925,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -46267,10 +45961,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46301,10 +45993,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1422">
@@ -46335,10 +46025,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46369,10 +46057,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -46407,10 +46093,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1425">
@@ -46433,10 +46117,8 @@
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
       <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46463,10 +46145,8 @@
       </c>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46489,10 +46169,8 @@
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46519,222 +46197,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr"/>
-      <c r="C1429" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1429" t="inlineStr"/>
-      <c r="E1429" t="inlineStr"/>
+      <c r="E1429" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr"/>
+      <c r="H1429" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr"/>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1430" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr"/>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr"/>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1433" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1433" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
@@ -46746,33 +46442,29 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1436" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
@@ -46784,33 +46476,29 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
@@ -46822,67 +46510,67 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46894,29 +46582,29 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46928,33 +46616,33 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46966,215 +46654,215 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1442" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1442" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1446" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr"/>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
@@ -47186,57 +46874,57 @@
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
-      <c r="E1448" t="inlineStr"/>
+      <c r="E1448" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1449" t="inlineStr"/>
       <c r="H1449" t="inlineStr">
         <is>
           <t>3</t>
@@ -47246,125 +46934,89 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1450" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr"/>
+      <c r="C1450" t="inlineStr"/>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr"/>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1450" t="inlineStr"/>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1451" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1452" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr"/>
+      <c r="C1452" t="inlineStr"/>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1452" t="inlineStr"/>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1452" t="inlineStr"/>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47374,31 +47026,27 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1454" t="inlineStr"/>
       <c r="H1454" t="inlineStr">
         <is>
           <t>3</t>
@@ -47408,31 +47056,27 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
           <t>3</t>
@@ -47442,313 +47086,257 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1456" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
+      <c r="F1456" t="inlineStr"/>
+      <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1457" t="inlineStr"/>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1462" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1463" t="inlineStr"/>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1464" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1464" t="inlineStr">
@@ -47760,33 +47348,29 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1465" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1465" t="inlineStr">
@@ -47798,33 +47382,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47836,35 +47416,27 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1467" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
           <t>3</t>
@@ -47874,35 +47446,27 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr"/>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47912,63 +47476,63 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -47980,7 +47544,7 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
@@ -47990,47 +47554,55 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -48040,45 +47612,49 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr"/>
-      <c r="C1473" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr"/>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr"/>
-      <c r="H1473" t="inlineStr"/>
+      <c r="H1473" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
-      <c r="E1474" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1474" t="inlineStr"/>
       <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1474" t="inlineStr"/>
       <c r="H1474" t="inlineStr">
         <is>
           <t>3</t>
@@ -48088,121 +47664,129 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr"/>
-      <c r="C1475" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr"/>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr"/>
-      <c r="H1475" t="inlineStr"/>
+      <c r="H1475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1476" t="inlineStr"/>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
+      <c r="G1477" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
@@ -48218,17 +47802,17 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
@@ -48244,55 +47828,47 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1482" t="inlineStr"/>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
@@ -48304,27 +47880,31 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1483" t="inlineStr">
         <is>
           <t>1</t>
@@ -48334,27 +47914,31 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr"/>
+      <c r="G1484" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1484" t="inlineStr">
         <is>
           <t>3</t>
@@ -48362,29 +47946,29 @@
       </c>
     </row>
     <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1485" t="inlineStr"/>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
+      <c r="G1485" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -48392,25 +47976,33 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1486" t="inlineStr"/>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr"/>
+      <c r="E1486" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1486" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1486" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48420,65 +48012,41 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1487" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr"/>
+      <c r="C1487" t="inlineStr"/>
       <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1487" t="inlineStr"/>
+      <c r="H1487" t="inlineStr"/>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1488" t="inlineStr"/>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48488,29 +48056,29 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
@@ -48522,27 +48090,31 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48552,27 +48124,31 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -48582,97 +48158,93 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1494" t="inlineStr">
@@ -48684,678 +48256,30 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1495" t="inlineStr"/>
       <c r="H1495" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1496">
-      <c r="A1496" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1496" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1496" t="inlineStr">
-        <is>
-          <t>12-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D1496" t="inlineStr"/>
-      <c r="E1496" t="inlineStr"/>
-      <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1497" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1497" t="inlineStr">
-        <is>
-          <t>3-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D1497" t="inlineStr"/>
-      <c r="E1497" t="inlineStr"/>
-      <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr"/>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1498" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1498" t="inlineStr">
-        <is>
-          <t>6-Month BTF Auction</t>
-        </is>
-      </c>
-      <c r="D1498" t="inlineStr"/>
-      <c r="E1498" t="inlineStr"/>
-      <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr"/>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1499" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1499" t="inlineStr">
-        <is>
-          <t>New Home SalesDEC</t>
-        </is>
-      </c>
-      <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
-      <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1500" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
-      <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1501" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1501" t="inlineStr">
-        <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1501" t="inlineStr"/>
-      <c r="E1501" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1502" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1502" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr"/>
-      <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1503">
-      <c r="A1503" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1503" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1503" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
-      <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr"/>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1504" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1505" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1505" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr"/>
-      <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr">
-        <is>
-          <t>Unemployment Rate PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr"/>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1508" t="inlineStr">
-        <is>
-          <t>Building Permits FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr"/>
-      <c r="B1509" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1509" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1509" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr"/>
-      <c r="C1510" t="inlineStr"/>
-      <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr"/>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr">
-        <is>
-          <t>6-Month T-Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1513" t="inlineStr"/>
-      <c r="E1513" t="inlineStr">
-        <is>
-          <t>-5.1%</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1514" t="inlineStr"/>
-      <c r="E1514" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1515" t="inlineStr">
-        <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr">
-        <is>
-          <t>Unemployment RateQ4</t>
-        </is>
-      </c>
-      <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr">
-        <is>
-          <t>11.21%</t>
-        </is>
-      </c>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1495"/>
+  <dimension ref="A1:H1476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46225,10 +46225,8 @@
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -46259,10 +46257,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46293,10 +46289,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46327,10 +46321,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -46365,10 +46357,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1434">
@@ -46399,10 +46389,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1435">
@@ -46433,10 +46421,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -46467,10 +46453,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1437">
@@ -46501,10 +46485,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1438">
@@ -46535,10 +46517,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1439">
@@ -46573,10 +46553,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1440">
@@ -46607,10 +46585,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -46645,10 +46621,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1442">
@@ -46683,10 +46657,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
@@ -46721,10 +46693,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -46759,10 +46729,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -46797,10 +46765,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -46831,10 +46797,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -46865,10 +46829,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -46895,10 +46857,8 @@
       </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -46925,10 +46885,8 @@
       </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -46973,130 +46931,136 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr"/>
-      <c r="C1452" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1452" t="inlineStr"/>
       <c r="E1452" t="inlineStr"/>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr"/>
+      <c r="H1452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1453" t="inlineStr"/>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr"/>
+      <c r="G1454" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
@@ -47112,17 +47076,17 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
@@ -47138,55 +47102,47 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1458" t="inlineStr"/>
       <c r="F1458" t="inlineStr"/>
       <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1459" t="inlineStr"/>
       <c r="F1459" t="inlineStr"/>
       <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
@@ -47198,27 +47154,31 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1460" t="inlineStr">
         <is>
           <t>1</t>
@@ -47228,27 +47188,31 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
+      <c r="G1461" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1461" t="inlineStr">
         <is>
           <t>3</t>
@@ -47256,29 +47220,29 @@
       </c>
     </row>
     <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1462" t="inlineStr"/>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1462" t="inlineStr">
         <is>
           <t>3</t>
@@ -47286,25 +47250,33 @@
       </c>
     </row>
     <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1463" t="inlineStr"/>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
+      <c r="E1463" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1463" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1463" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1463" t="inlineStr">
         <is>
           <t>3</t>
@@ -47314,65 +47286,41 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1464" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr"/>
+      <c r="C1464" t="inlineStr"/>
       <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1464" t="inlineStr"/>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
+      <c r="H1464" t="inlineStr"/>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
           <t>3</t>
@@ -47382,29 +47330,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47416,27 +47364,31 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1467" t="inlineStr">
         <is>
           <t>3</t>
@@ -47446,27 +47398,31 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47476,97 +47432,93 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1470" t="inlineStr"/>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
@@ -47578,31 +47530,27 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -47612,17 +47560,17 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
@@ -47638,17 +47586,17 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
@@ -47664,17 +47612,17 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
@@ -47690,594 +47638,28 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
       <c r="H1476" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1477">
-      <c r="A1477" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1477" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr"/>
-      <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1477" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1478">
-      <c r="A1478" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1478" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1478" t="inlineStr">
-        <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr"/>
-      <c r="H1478" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1479">
-      <c r="A1479" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1479" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1479" t="inlineStr"/>
-      <c r="E1479" t="inlineStr"/>
-      <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1480">
-      <c r="A1480" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1480" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1480" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr"/>
-      <c r="F1480" t="inlineStr"/>
-      <c r="G1480" t="inlineStr"/>
-      <c r="H1480" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1481">
-      <c r="A1481" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1481" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1481" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr"/>
-      <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
-      <c r="H1481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1482">
-      <c r="A1482" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1482" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1482" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr"/>
-      <c r="F1482" t="inlineStr"/>
-      <c r="G1482" t="inlineStr"/>
-      <c r="H1482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1483">
-      <c r="A1483" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1483" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1483" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1483" t="inlineStr"/>
-      <c r="E1483" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1484">
-      <c r="A1484" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1484" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1484" t="inlineStr">
-        <is>
-          <t>Unemployment Rate PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1484" t="inlineStr"/>
-      <c r="E1484" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
-      <c r="H1484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1485">
-      <c r="A1485" t="inlineStr"/>
-      <c r="B1485" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1485" t="inlineStr">
-        <is>
-          <t>Building Permits FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H1485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1486">
-      <c r="A1486" t="inlineStr"/>
-      <c r="B1486" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1486" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1486" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr"/>
-      <c r="C1487" t="inlineStr"/>
-      <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr"/>
-      <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr"/>
-    </row>
-    <row r="1488">
-      <c r="A1488" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1488" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1488" t="inlineStr">
-        <is>
-          <t>6-Month T-Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1488" t="inlineStr"/>
-      <c r="E1488" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
-      <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
-      <c r="H1488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1489" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1489" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1489" t="inlineStr"/>
-      <c r="E1489" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H1489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1490" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1490" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1490" t="inlineStr"/>
-      <c r="E1490" t="inlineStr">
-        <is>
-          <t>-5.1%</t>
-        </is>
-      </c>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="H1490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1491">
-      <c r="A1491" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1491" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1492">
-      <c r="A1492" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1492" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1492" t="inlineStr">
-        <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1492" t="inlineStr"/>
-      <c r="E1492" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1493">
-      <c r="A1493" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B1493" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1493" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1493" t="inlineStr"/>
-      <c r="E1493" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1494">
-      <c r="A1494" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1494" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1494" t="inlineStr">
-        <is>
-          <t>Unemployment RateQ4</t>
-        </is>
-      </c>
-      <c r="D1494" t="inlineStr"/>
-      <c r="E1494" t="inlineStr">
-        <is>
-          <t>11.21%</t>
-        </is>
-      </c>
-      <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1495">
-      <c r="A1495" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1495" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1495" t="inlineStr">
-        <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1495" t="inlineStr"/>
-      <c r="E1495" t="inlineStr">
-        <is>
-          <t>0.745%</t>
-        </is>
-      </c>
-      <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1526"/>
+  <dimension ref="A1:H1503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40903,10 +40903,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1255">
@@ -40941,10 +40939,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1256">
@@ -40979,10 +40975,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1256" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1257">
@@ -41017,10 +41011,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1258">
@@ -41051,10 +41043,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1259">
@@ -41089,10 +41079,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1260">
@@ -41123,10 +41111,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1261">
@@ -41161,10 +41147,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1262">
@@ -41191,10 +41175,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1263">
@@ -41213,10 +41195,8 @@
       <c r="E1263" t="inlineStr"/>
       <c r="F1263" t="inlineStr"/>
       <c r="G1263" t="inlineStr"/>
-      <c r="H1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1264">
@@ -41261,10 +41241,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1266">
@@ -41299,10 +41277,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41333,10 +41309,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41367,10 +41341,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41397,10 +41369,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41427,10 +41397,8 @@
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41461,10 +41429,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41495,10 +41461,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1273">
@@ -41525,10 +41489,8 @@
       </c>
       <c r="F1273" t="inlineStr"/>
       <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41555,10 +41517,8 @@
       </c>
       <c r="F1274" t="inlineStr"/>
       <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41585,10 +41545,8 @@
       </c>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41611,10 +41569,8 @@
       <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
       <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1277">
@@ -41645,10 +41601,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41679,10 +41633,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41717,10 +41669,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41751,10 +41701,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41785,10 +41733,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41815,10 +41761,8 @@
       </c>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41841,10 +41785,8 @@
       </c>
       <c r="F1283" t="inlineStr"/>
       <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41871,10 +41813,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41893,10 +41833,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41923,10 +41861,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -41953,10 +41889,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -41975,10 +41909,8 @@
       <c r="E1288" t="inlineStr"/>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -41997,10 +41929,8 @@
       <c r="E1289" t="inlineStr"/>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
@@ -42041,10 +41971,8 @@
       </c>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1292">
@@ -42071,10 +41999,8 @@
       </c>
       <c r="F1292" t="inlineStr"/>
       <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1293">
@@ -42105,10 +42031,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -42143,10 +42067,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1295">
@@ -42181,10 +42103,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1296">
@@ -42215,10 +42135,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1297">
@@ -42253,10 +42171,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42291,10 +42207,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42325,10 +42239,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -42359,10 +42271,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1301">
@@ -42393,10 +42303,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42427,10 +42335,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42465,10 +42371,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1304">
@@ -42503,10 +42407,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1305">
@@ -42541,10 +42443,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42571,10 +42471,8 @@
       </c>
       <c r="F1306" t="inlineStr"/>
       <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -42601,10 +42499,8 @@
       </c>
       <c r="F1307" t="inlineStr"/>
       <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1308">
@@ -42635,10 +42531,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1309">
@@ -42669,10 +42563,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42707,10 +42599,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1311">
@@ -42741,10 +42631,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1312">
@@ -42779,10 +42667,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1313">
@@ -42813,10 +42699,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42851,10 +42735,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42889,10 +42771,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42919,10 +42799,8 @@
       </c>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -42949,10 +42827,8 @@
       </c>
       <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -42979,10 +42855,8 @@
       </c>
       <c r="F1318" t="inlineStr"/>
       <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43009,10 +42883,8 @@
       </c>
       <c r="F1319" t="inlineStr"/>
       <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43043,10 +42915,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43077,10 +42947,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -43129,10 +42997,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43163,10 +43029,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1325">
@@ -43197,10 +43061,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1326">
@@ -43231,10 +43093,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43265,10 +43125,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43295,10 +43153,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43329,10 +43185,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43363,10 +43217,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43393,10 +43245,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43423,10 +43273,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43453,10 +43301,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43483,10 +43329,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1335">
@@ -43513,10 +43357,8 @@
       </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43543,10 +43385,8 @@
       </c>
       <c r="F1336" t="inlineStr"/>
       <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43573,10 +43413,8 @@
       </c>
       <c r="F1337" t="inlineStr"/>
       <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43603,10 +43441,8 @@
       </c>
       <c r="F1338" t="inlineStr"/>
       <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43637,10 +43473,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43671,10 +43505,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43705,10 +43537,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43739,10 +43569,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43769,10 +43597,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43807,10 +43633,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43833,10 +43657,8 @@
       <c r="E1345" t="inlineStr"/>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43863,10 +43685,8 @@
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1347">
@@ -43893,10 +43713,8 @@
       </c>
       <c r="F1347" t="inlineStr"/>
       <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1348">
@@ -43927,10 +43745,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -43961,10 +43777,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1350">
@@ -43991,10 +43805,8 @@
       </c>
       <c r="F1350" t="inlineStr"/>
       <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44029,10 +43841,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1352">
@@ -44067,10 +43877,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44105,10 +43913,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1354">
@@ -44143,10 +43949,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1355">
@@ -44173,10 +43977,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44211,10 +44013,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44241,10 +44041,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44271,10 +44069,8 @@
       </c>
       <c r="F1358" t="inlineStr"/>
       <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44301,10 +44097,8 @@
       </c>
       <c r="F1359" t="inlineStr"/>
       <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44345,10 +44139,8 @@
       </c>
       <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44379,10 +44171,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44413,10 +44203,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44447,10 +44235,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -44481,10 +44267,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1366">
@@ -44511,10 +44295,8 @@
       </c>
       <c r="F1366" t="inlineStr"/>
       <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44541,10 +44323,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44575,10 +44355,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1369">
@@ -44613,10 +44391,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -44647,10 +44423,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44677,10 +44451,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44707,10 +44479,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44737,10 +44507,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44767,10 +44535,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44797,10 +44563,8 @@
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44827,10 +44591,8 @@
       </c>
       <c r="F1376" t="inlineStr"/>
       <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -44857,10 +44619,8 @@
       </c>
       <c r="F1377" t="inlineStr"/>
       <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -44887,10 +44647,8 @@
       </c>
       <c r="F1378" t="inlineStr"/>
       <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -44921,10 +44679,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -44955,10 +44711,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -44993,10 +44747,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1382">
@@ -45027,10 +44779,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45061,10 +44811,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1384">
@@ -45099,10 +44847,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1385">
@@ -45129,10 +44875,8 @@
       </c>
       <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45163,10 +44907,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45197,10 +44939,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1388">
@@ -45231,10 +44971,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1389">
@@ -45265,10 +45003,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45303,10 +45039,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45341,10 +45075,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1392">
@@ -45367,10 +45099,8 @@
       <c r="E1392" t="inlineStr"/>
       <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -45401,10 +45131,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -45439,10 +45167,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -45473,10 +45199,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -45507,10 +45231,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -45545,10 +45267,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1398">
@@ -45575,10 +45295,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45605,10 +45323,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1400">
@@ -45635,10 +45351,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -45665,10 +45379,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45695,10 +45407,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45725,10 +45435,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45755,10 +45463,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45785,10 +45491,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45815,10 +45519,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45845,10 +45547,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45875,10 +45575,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45905,10 +45603,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45935,10 +45631,8 @@
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45965,10 +45659,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -45995,10 +45687,8 @@
       </c>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46025,10 +45715,8 @@
       </c>
       <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46059,10 +45747,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46089,10 +45775,8 @@
       </c>
       <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46123,10 +45807,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1417">
@@ -46157,10 +45839,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -46191,10 +45871,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46225,10 +45903,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -46263,10 +45939,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46297,10 +45971,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -46331,10 +46003,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46369,10 +46039,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1424">
@@ -46407,10 +46075,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1425">
@@ -46441,10 +46107,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46475,10 +46139,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46509,10 +46171,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46547,10 +46207,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1429">
@@ -46573,10 +46231,8 @@
       <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1430">
@@ -46603,10 +46259,8 @@
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46629,10 +46283,8 @@
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46659,222 +46311,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
+      <c r="H1433" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46886,33 +46556,29 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1440" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46924,33 +46590,29 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1441" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46962,67 +46624,67 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr"/>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
@@ -47034,29 +46696,29 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
@@ -47068,33 +46730,33 @@
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
@@ -47106,215 +46768,215 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1446" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
@@ -47326,57 +46988,57 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47386,125 +47048,89 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr"/>
+      <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1454" t="inlineStr"/>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1455" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr"/>
+      <c r="C1456" t="inlineStr"/>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1456" t="inlineStr"/>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
           <t>3</t>
@@ -47514,31 +47140,27 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
           <t>3</t>
@@ -47548,31 +47170,27 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
           <t>3</t>
@@ -47582,313 +47200,257 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1460" t="inlineStr"/>
+      <c r="F1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1461" t="inlineStr"/>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
+      <c r="G1466" t="inlineStr"/>
       <c r="H1466" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr">
@@ -47900,33 +47462,29 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1469" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
@@ -47938,33 +47496,29 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1470" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -47976,35 +47530,27 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr"/>
       <c r="H1471" t="inlineStr">
         <is>
           <t>3</t>
@@ -48014,35 +47560,27 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -48052,63 +47590,63 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1474" t="inlineStr">
@@ -48120,7 +47658,7 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
@@ -48130,47 +47668,55 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
+      <c r="G1475" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
+      <c r="G1476" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1476" t="inlineStr">
         <is>
           <t>3</t>
@@ -48180,45 +47726,49 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr"/>
-      <c r="C1477" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr"/>
+      <c r="H1477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
           <t>3</t>
@@ -48228,121 +47778,129 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr"/>
-      <c r="C1479" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr"/>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr"/>
+      <c r="H1479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1480" t="inlineStr"/>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
@@ -48358,17 +47916,17 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
@@ -48384,55 +47942,47 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1486" t="inlineStr"/>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
@@ -48444,27 +47994,31 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1487" t="inlineStr">
         <is>
           <t>1</t>
@@ -48474,27 +48028,31 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48502,29 +48060,29 @@
       </c>
     </row>
     <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1489" t="inlineStr"/>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
+      <c r="G1489" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -48532,25 +48090,33 @@
       </c>
     </row>
     <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1490" t="inlineStr"/>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48560,65 +48126,41 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1491" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr"/>
+      <c r="C1491" t="inlineStr"/>
       <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1491" t="inlineStr"/>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
+      <c r="H1491" t="inlineStr"/>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48628,29 +48170,29 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1493" t="inlineStr">
@@ -48662,27 +48204,31 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr"/>
+      <c r="G1494" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1494" t="inlineStr">
         <is>
           <t>3</t>
@@ -48692,27 +48238,31 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
+      <c r="G1495" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1495" t="inlineStr">
         <is>
           <t>3</t>
@@ -48722,97 +48272,93 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1497" t="inlineStr"/>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr">
@@ -48824,31 +48370,27 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
           <t>3</t>
@@ -48858,17 +48400,17 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
@@ -48884,17 +48426,17 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
@@ -48910,17 +48452,17 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
@@ -48936,702 +48478,28 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1504" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1505" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1505" t="inlineStr">
-        <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
-      <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1508" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr"/>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1509" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1510" t="inlineStr">
-        <is>
-          <t>NAB Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr">
-        <is>
-          <t>Unemployment Rate PrelQ4</t>
-        </is>
-      </c>
-      <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr"/>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr">
-        <is>
-          <t>Building Permits FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr"/>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D1513" t="inlineStr"/>
-      <c r="E1513" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr"/>
-      <c r="C1514" t="inlineStr"/>
-      <c r="D1514" t="inlineStr"/>
-      <c r="E1514" t="inlineStr"/>
-      <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr"/>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1515" t="inlineStr">
-        <is>
-          <t>6-Month T-Bill Auction</t>
-        </is>
-      </c>
-      <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr">
-        <is>
-          <t>-5.1%</t>
-        </is>
-      </c>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr">
-        <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1519" t="inlineStr"/>
-      <c r="E1519" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr">
-        <is>
-          <t>Unemployment RateQ4</t>
-        </is>
-      </c>
-      <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr">
-        <is>
-          <t>11.21%</t>
-        </is>
-      </c>
-      <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1522" t="inlineStr">
-        <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr">
-        <is>
-          <t>0.745%</t>
-        </is>
-      </c>
-      <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr"/>
-      <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr">
-        <is>
-          <t>2-Year BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr"/>
-      <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr">
-        <is>
-          <t>BTP€i Auction</t>
-        </is>
-      </c>
-      <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr">
-        <is>
-          <t>2-Year Schatz Auction</t>
-        </is>
-      </c>
-      <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1532"/>
+  <dimension ref="A1:H1513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41227,10 +41227,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1265">
@@ -41257,10 +41255,8 @@
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -41287,10 +41283,8 @@
       </c>
       <c r="F1266" t="inlineStr"/>
       <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41321,10 +41315,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41355,10 +41347,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41385,10 +41375,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41415,10 +41403,8 @@
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41445,10 +41431,8 @@
       </c>
       <c r="F1271" t="inlineStr"/>
       <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41471,10 +41455,8 @@
       <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1273">
@@ -41505,10 +41487,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41539,10 +41519,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41577,10 +41555,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41611,10 +41587,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -41645,10 +41619,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41675,10 +41647,8 @@
       </c>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41701,10 +41671,8 @@
       </c>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41731,10 +41699,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41753,10 +41719,8 @@
       <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41783,10 +41747,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41813,10 +41775,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41835,10 +41795,8 @@
       <c r="E1284" t="inlineStr"/>
       <c r="F1284" t="inlineStr"/>
       <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41857,10 +41815,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41901,10 +41857,8 @@
       </c>
       <c r="F1287" t="inlineStr"/>
       <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -41931,10 +41885,8 @@
       </c>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -41965,10 +41917,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1290">
@@ -42003,10 +41953,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1290" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1291">
@@ -42041,10 +41989,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1292">
@@ -42075,10 +42021,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1293">
@@ -42113,10 +42057,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1294">
@@ -42151,10 +42093,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1295">
@@ -42185,10 +42125,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1296">
@@ -42219,10 +42157,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1297">
@@ -42253,10 +42189,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42287,10 +42221,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42325,10 +42257,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1300">
@@ -42363,10 +42293,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1301">
@@ -42401,10 +42329,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42431,10 +42357,8 @@
       </c>
       <c r="F1302" t="inlineStr"/>
       <c r="G1302" t="inlineStr"/>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42461,10 +42385,8 @@
       </c>
       <c r="F1303" t="inlineStr"/>
       <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
@@ -42495,10 +42417,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1305">
@@ -42529,10 +42449,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42567,10 +42485,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1307">
@@ -42601,10 +42517,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1308">
@@ -42639,10 +42553,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1309">
@@ -42673,10 +42585,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42711,10 +42621,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1311">
@@ -42749,10 +42657,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1312">
@@ -42779,10 +42685,8 @@
       </c>
       <c r="F1312" t="inlineStr"/>
       <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1313">
@@ -42809,10 +42713,8 @@
       </c>
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42839,10 +42741,8 @@
       </c>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42869,10 +42769,8 @@
       </c>
       <c r="F1315" t="inlineStr"/>
       <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42903,10 +42801,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1317">
@@ -42937,10 +42833,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -42989,10 +42883,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43023,10 +42915,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43057,10 +42947,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1322">
@@ -43091,10 +42979,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1323">
@@ -43125,10 +43011,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43155,10 +43039,8 @@
       </c>
       <c r="F1324" t="inlineStr"/>
       <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1325">
@@ -43189,10 +43071,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1326">
@@ -43223,10 +43103,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43253,10 +43131,8 @@
       </c>
       <c r="F1327" t="inlineStr"/>
       <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43283,10 +43159,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43313,10 +43187,8 @@
       </c>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43343,10 +43215,8 @@
       </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1331">
@@ -43373,10 +43243,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43403,10 +43271,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43433,10 +43299,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43463,10 +43327,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
@@ -43497,10 +43359,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43531,10 +43391,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43565,10 +43423,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43599,10 +43455,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43629,10 +43483,8 @@
       </c>
       <c r="F1339" t="inlineStr"/>
       <c r="G1339" t="inlineStr"/>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43667,10 +43519,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43693,10 +43543,8 @@
       <c r="E1341" t="inlineStr"/>
       <c r="F1341" t="inlineStr"/>
       <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1342">
@@ -43723,10 +43571,8 @@
       </c>
       <c r="F1342" t="inlineStr"/>
       <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43753,10 +43599,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43787,10 +43631,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43821,10 +43663,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43851,10 +43691,8 @@
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1347">
@@ -43889,10 +43727,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1348">
@@ -43927,10 +43763,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -43965,10 +43799,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1350">
@@ -44003,10 +43835,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44033,10 +43863,8 @@
       </c>
       <c r="F1351" t="inlineStr"/>
       <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1352">
@@ -44071,10 +43899,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44101,10 +43927,8 @@
       </c>
       <c r="F1353" t="inlineStr"/>
       <c r="G1353" t="inlineStr"/>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1354">
@@ -44131,10 +43955,8 @@
       </c>
       <c r="F1354" t="inlineStr"/>
       <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1355">
@@ -44161,10 +43983,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44205,10 +44025,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44239,10 +44057,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44273,10 +44089,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44307,10 +44121,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1361">
@@ -44341,10 +44153,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44371,10 +44181,8 @@
       </c>
       <c r="F1362" t="inlineStr"/>
       <c r="G1362" t="inlineStr"/>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44401,10 +44209,8 @@
       </c>
       <c r="F1363" t="inlineStr"/>
       <c r="G1363" t="inlineStr"/>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44435,10 +44241,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1365">
@@ -44473,10 +44277,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1366">
@@ -44507,10 +44309,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44537,10 +44337,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44567,10 +44365,8 @@
       </c>
       <c r="F1368" t="inlineStr"/>
       <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -44597,10 +44393,8 @@
       </c>
       <c r="F1369" t="inlineStr"/>
       <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1370">
@@ -44627,10 +44421,8 @@
       </c>
       <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44657,10 +44449,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44687,10 +44477,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44717,10 +44505,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44747,10 +44533,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44781,10 +44565,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44815,10 +44597,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1377">
@@ -44853,10 +44633,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1378">
@@ -44887,10 +44665,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -44921,10 +44697,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1380">
@@ -44959,10 +44733,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -44989,10 +44761,8 @@
       </c>
       <c r="F1381" t="inlineStr"/>
       <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -45023,10 +44793,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45057,10 +44825,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
@@ -45091,10 +44857,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1385">
@@ -45125,10 +44889,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45163,10 +44925,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1387">
@@ -45201,10 +44961,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1388">
@@ -45227,10 +44985,8 @@
       <c r="E1388" t="inlineStr"/>
       <c r="F1388" t="inlineStr"/>
       <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1389">
@@ -45261,10 +45017,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45299,10 +45053,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45333,10 +45085,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1392">
@@ -45367,10 +45117,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1393">
@@ -45405,10 +45153,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1394">
@@ -45435,10 +45181,8 @@
       </c>
       <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr"/>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1395">
@@ -45465,10 +45209,8 @@
       </c>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1396">
@@ -45495,10 +45237,8 @@
       </c>
       <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1397">
@@ -45525,10 +45265,8 @@
       </c>
       <c r="F1397" t="inlineStr"/>
       <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1398">
@@ -45555,10 +45293,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45585,10 +45321,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -45615,10 +45349,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1401">
@@ -45645,10 +45377,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45675,10 +45405,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45705,10 +45433,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45735,10 +45461,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45765,10 +45489,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45795,10 +45517,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45825,10 +45545,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45855,10 +45573,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45885,10 +45601,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45919,10 +45633,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45949,10 +45661,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -45983,10 +45693,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1413">
@@ -46017,10 +45725,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1414">
@@ -46051,10 +45757,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46085,10 +45789,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1416">
@@ -46123,10 +45825,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1417">
@@ -46157,10 +45857,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -46191,10 +45889,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46229,10 +45925,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -46267,10 +45961,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46301,10 +45993,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1422">
@@ -46335,10 +46025,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46369,10 +46057,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -46407,10 +46093,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1425">
@@ -46433,10 +46117,8 @@
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
       <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46463,10 +46145,8 @@
       </c>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46489,10 +46169,8 @@
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46519,222 +46197,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr"/>
-      <c r="C1429" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1429" t="inlineStr"/>
-      <c r="E1429" t="inlineStr"/>
+      <c r="E1429" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr"/>
+      <c r="H1429" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr"/>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1430" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr"/>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr"/>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1433" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1433" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
@@ -46746,33 +46442,29 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1436" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
@@ -46784,33 +46476,29 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
@@ -46822,67 +46510,67 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46894,29 +46582,29 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46928,33 +46616,33 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46966,215 +46654,215 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1442" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1442" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1446" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr"/>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
@@ -47186,57 +46874,57 @@
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
-      <c r="E1448" t="inlineStr"/>
+      <c r="E1448" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1449" t="inlineStr"/>
       <c r="H1449" t="inlineStr">
         <is>
           <t>3</t>
@@ -47246,125 +46934,89 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1450" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr"/>
+      <c r="C1450" t="inlineStr"/>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr"/>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1450" t="inlineStr"/>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1451" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1452" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr"/>
+      <c r="C1452" t="inlineStr"/>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1452" t="inlineStr"/>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1452" t="inlineStr"/>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47374,31 +47026,27 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1454" t="inlineStr"/>
       <c r="H1454" t="inlineStr">
         <is>
           <t>3</t>
@@ -47408,31 +47056,27 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
           <t>3</t>
@@ -47442,313 +47086,257 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1456" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
+      <c r="F1456" t="inlineStr"/>
+      <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1457" t="inlineStr"/>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1462" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1463" t="inlineStr"/>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1464" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1464" t="inlineStr">
@@ -47760,33 +47348,29 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1465" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1465" t="inlineStr">
@@ -47798,33 +47382,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47836,35 +47416,27 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1467" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
           <t>3</t>
@@ -47874,35 +47446,27 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr"/>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47912,63 +47476,63 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -47980,7 +47544,7 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
@@ -47990,47 +47554,55 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -48040,45 +47612,49 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr"/>
-      <c r="C1473" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr"/>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr"/>
-      <c r="H1473" t="inlineStr"/>
+      <c r="H1473" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
-      <c r="E1474" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1474" t="inlineStr"/>
       <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1474" t="inlineStr"/>
       <c r="H1474" t="inlineStr">
         <is>
           <t>3</t>
@@ -48088,121 +47664,129 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr"/>
-      <c r="C1475" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr"/>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr"/>
-      <c r="H1475" t="inlineStr"/>
+      <c r="H1475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1476" t="inlineStr"/>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
+      <c r="G1477" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
@@ -48218,17 +47802,17 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
@@ -48244,55 +47828,47 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1482" t="inlineStr"/>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
@@ -48304,27 +47880,31 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1483" t="inlineStr">
         <is>
           <t>1</t>
@@ -48334,27 +47914,31 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr"/>
+      <c r="G1484" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1484" t="inlineStr">
         <is>
           <t>3</t>
@@ -48362,29 +47946,29 @@
       </c>
     </row>
     <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1485" t="inlineStr"/>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
+      <c r="G1485" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -48392,25 +47976,33 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1486" t="inlineStr"/>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr"/>
+      <c r="E1486" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1486" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1486" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48420,65 +48012,41 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1487" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr"/>
+      <c r="C1487" t="inlineStr"/>
       <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1487" t="inlineStr"/>
+      <c r="H1487" t="inlineStr"/>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1488" t="inlineStr"/>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48488,29 +48056,29 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
@@ -48522,27 +48090,31 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48552,27 +48124,31 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -48582,97 +48158,93 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1494" t="inlineStr">
@@ -48684,31 +48256,27 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1495" t="inlineStr"/>
       <c r="H1495" t="inlineStr">
         <is>
           <t>3</t>
@@ -48718,17 +48286,17 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
@@ -48744,17 +48312,17 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
@@ -48770,17 +48338,17 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
@@ -48796,33 +48364,37 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
@@ -48832,27 +48404,31 @@
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
@@ -48862,17 +48438,21 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
+      <c r="G1501" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1501" t="inlineStr">
         <is>
           <t>2</t>
@@ -48882,7 +48462,7 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -48892,13 +48472,21 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr"/>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
+      <c r="G1502" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1502" t="inlineStr">
         <is>
           <t>3</t>
@@ -48908,7 +48496,7 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -48918,11 +48506,15 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
@@ -48934,7 +48526,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48944,7 +48536,7 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
@@ -48960,7 +48552,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -48970,81 +48562,73 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr"/>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr">
+      <c r="G1506" t="inlineStr"/>
+      <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1507" t="inlineStr"/>
       <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
         <is>
           <t>3</t>
@@ -49052,7 +48636,11 @@
       </c>
     </row>
     <row r="1508">
-      <c r="A1508" t="inlineStr"/>
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1508" t="inlineStr">
         <is>
           <t>US</t>
@@ -49060,21 +48648,17 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
           <t>3</t>
@@ -49082,7 +48666,11 @@
       </c>
     </row>
     <row r="1509">
-      <c r="A1509" t="inlineStr"/>
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1509" t="inlineStr">
         <is>
           <t>US</t>
@@ -49090,25 +48678,17 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1509" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
           <t>3</t>
@@ -49118,39 +48698,47 @@
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr"/>
-      <c r="C1510" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr"/>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr"/>
+      <c r="H1510" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
@@ -49162,29 +48750,29 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1512" t="inlineStr">
@@ -49196,606 +48784,32 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D1514" t="inlineStr"/>
-      <c r="E1514" t="inlineStr">
-        <is>
-          <t>-3%</t>
-        </is>
-      </c>
-      <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C1515" t="inlineStr">
-        <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr">
-        <is>
-          <t>Unemployment RateQ4</t>
-        </is>
-      </c>
-      <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr">
-        <is>
-          <t>11.21%</t>
-        </is>
-      </c>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr">
-        <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr">
-        <is>
-          <t>0.745%</t>
-        </is>
-      </c>
-      <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr"/>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1519" t="inlineStr"/>
-      <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr">
-        <is>
-          <t>2-Year BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr"/>
-      <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr">
-        <is>
-          <t>BTP€i Auction</t>
-        </is>
-      </c>
-      <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr"/>
-      <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1522" t="inlineStr">
-        <is>
-          <t>2-Year Schatz Auction</t>
-        </is>
-      </c>
-      <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr"/>
-      <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr"/>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1531" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr"/>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1532" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr"/>
-      <c r="H1532" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1513"/>
+  <dimension ref="A1:H1492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46225,10 +46225,8 @@
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -46259,10 +46257,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46293,10 +46289,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46327,10 +46321,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -46365,10 +46357,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1434">
@@ -46399,10 +46389,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1435">
@@ -46433,10 +46421,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -46467,10 +46453,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1437">
@@ -46501,10 +46485,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1438">
@@ -46535,10 +46517,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1439">
@@ -46573,10 +46553,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1440">
@@ -46607,10 +46585,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -46645,10 +46621,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1442">
@@ -46683,10 +46657,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
@@ -46721,10 +46693,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -46759,10 +46729,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -46797,10 +46765,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -46831,10 +46797,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -46865,10 +46829,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -46895,10 +46857,8 @@
       </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -46925,10 +46885,8 @@
       </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -46973,130 +46931,136 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr"/>
-      <c r="C1452" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1452" t="inlineStr"/>
       <c r="E1452" t="inlineStr"/>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr"/>
+      <c r="H1452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1453" t="inlineStr"/>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr"/>
+      <c r="G1454" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
@@ -47112,17 +47076,17 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
@@ -47138,55 +47102,47 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1458" t="inlineStr"/>
       <c r="F1458" t="inlineStr"/>
       <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1459" t="inlineStr"/>
       <c r="F1459" t="inlineStr"/>
       <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
@@ -47198,27 +47154,31 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1460" t="inlineStr">
         <is>
           <t>1</t>
@@ -47228,27 +47188,31 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
+      <c r="G1461" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1461" t="inlineStr">
         <is>
           <t>3</t>
@@ -47256,29 +47220,29 @@
       </c>
     </row>
     <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1462" t="inlineStr"/>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1462" t="inlineStr">
         <is>
           <t>3</t>
@@ -47286,25 +47250,33 @@
       </c>
     </row>
     <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1463" t="inlineStr"/>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
+      <c r="E1463" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1463" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1463" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1463" t="inlineStr">
         <is>
           <t>3</t>
@@ -47314,65 +47286,41 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1464" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr"/>
+      <c r="C1464" t="inlineStr"/>
       <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1464" t="inlineStr"/>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
+      <c r="H1464" t="inlineStr"/>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
           <t>3</t>
@@ -47382,29 +47330,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47416,27 +47364,31 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1467" t="inlineStr">
         <is>
           <t>3</t>
@@ -47446,27 +47398,31 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47476,97 +47432,93 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1470" t="inlineStr"/>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
@@ -47578,31 +47530,27 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -47612,17 +47560,17 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
@@ -47638,17 +47586,17 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
@@ -47664,17 +47612,17 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
@@ -47690,33 +47638,37 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
@@ -47726,27 +47678,31 @@
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr"/>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
@@ -47756,17 +47712,21 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr"/>
+      <c r="G1478" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1478" t="inlineStr">
         <is>
           <t>2</t>
@@ -47776,7 +47736,7 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
@@ -47786,13 +47746,21 @@
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
-      <c r="E1479" t="inlineStr"/>
+      <c r="E1479" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
+      <c r="G1479" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1479" t="inlineStr">
         <is>
           <t>3</t>
@@ -47802,7 +47770,7 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
@@ -47812,11 +47780,15 @@
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr"/>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
@@ -47828,7 +47800,7 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
@@ -47838,7 +47810,7 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
@@ -47854,7 +47826,7 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
@@ -47864,81 +47836,73 @@
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr"/>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr">
+      <c r="G1483" t="inlineStr"/>
+      <c r="H1483" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
-      <c r="E1484" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1484" t="inlineStr"/>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1484" t="inlineStr"/>
       <c r="H1484" t="inlineStr">
         <is>
           <t>3</t>
@@ -47946,7 +47910,11 @@
       </c>
     </row>
     <row r="1485">
-      <c r="A1485" t="inlineStr"/>
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1485" t="inlineStr">
         <is>
           <t>US</t>
@@ -47954,21 +47922,17 @@
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -47976,7 +47940,11 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr"/>
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1486" t="inlineStr">
         <is>
           <t>US</t>
@@ -47984,25 +47952,17 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1486" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1486" t="inlineStr"/>
+      <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48012,39 +47972,47 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr"/>
-      <c r="C1487" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr"/>
+      <c r="H1487" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
-      <c r="E1488" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
       <c r="H1488" t="inlineStr">
@@ -48056,29 +48024,29 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
@@ -48090,29 +48058,29 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
@@ -48124,31 +48092,27 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -48158,658 +48122,28 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1493">
-      <c r="A1493" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B1493" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1493" t="inlineStr">
-        <is>
-          <t>Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1493" t="inlineStr"/>
-      <c r="E1493" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr"/>
-      <c r="H1493" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1494">
-      <c r="A1494" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1494" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C1494" t="inlineStr">
-        <is>
-          <t>Unemployment RateQ4</t>
-        </is>
-      </c>
-      <c r="D1494" t="inlineStr"/>
-      <c r="E1494" t="inlineStr">
-        <is>
-          <t>11.21%</t>
-        </is>
-      </c>
-      <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
-      <c r="H1494" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1495">
-      <c r="A1495" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B1495" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C1495" t="inlineStr">
-        <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D1495" t="inlineStr"/>
-      <c r="E1495" t="inlineStr">
-        <is>
-          <t>0.745%</t>
-        </is>
-      </c>
-      <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
-      <c r="H1495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1496">
-      <c r="A1496" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1496" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1496" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1496" t="inlineStr"/>
-      <c r="E1496" t="inlineStr"/>
-      <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1497" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1497" t="inlineStr">
-        <is>
-          <t>2-Year BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1497" t="inlineStr"/>
-      <c r="E1497" t="inlineStr"/>
-      <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr"/>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1498" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1498" t="inlineStr">
-        <is>
-          <t>BTP€i Auction</t>
-        </is>
-      </c>
-      <c r="D1498" t="inlineStr"/>
-      <c r="E1498" t="inlineStr"/>
-      <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr"/>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1499" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1499" t="inlineStr">
-        <is>
-          <t>2-Year Schatz Auction</t>
-        </is>
-      </c>
-      <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1500" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1501" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1501" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1501" t="inlineStr"/>
-      <c r="E1501" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1502" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1502" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1503">
-      <c r="A1503" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1503" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1503" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr"/>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1504" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1505" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1505" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1508" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1509" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1510" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1513" t="inlineStr"/>
-      <c r="E1513" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1513" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1542"/>
+  <dimension ref="A1:H1522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40903,10 +40903,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1255">
@@ -40941,10 +40939,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1256">
@@ -40979,10 +40975,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1256" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1257">
@@ -41017,10 +41011,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1258">
@@ -41051,10 +41043,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1259">
@@ -41089,10 +41079,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1260">
@@ -41123,10 +41111,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1261">
@@ -41161,10 +41147,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1262">
@@ -41191,10 +41175,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1263">
@@ -41213,10 +41195,8 @@
       <c r="E1263" t="inlineStr"/>
       <c r="F1263" t="inlineStr"/>
       <c r="G1263" t="inlineStr"/>
-      <c r="H1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1264">
@@ -41261,10 +41241,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1266">
@@ -41299,10 +41277,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41333,10 +41309,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41367,10 +41341,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41397,10 +41369,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41427,10 +41397,8 @@
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41461,10 +41429,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41495,10 +41461,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1273">
@@ -41525,10 +41489,8 @@
       </c>
       <c r="F1273" t="inlineStr"/>
       <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41555,10 +41517,8 @@
       </c>
       <c r="F1274" t="inlineStr"/>
       <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41585,10 +41545,8 @@
       </c>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41611,10 +41569,8 @@
       <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
       <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1277">
@@ -41645,10 +41601,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41679,10 +41633,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41717,10 +41669,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41751,10 +41701,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41785,10 +41733,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41815,10 +41761,8 @@
       </c>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41841,10 +41785,8 @@
       </c>
       <c r="F1283" t="inlineStr"/>
       <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41871,10 +41813,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41893,10 +41833,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41923,10 +41861,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -41953,10 +41889,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -41975,10 +41909,8 @@
       <c r="E1288" t="inlineStr"/>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -41997,10 +41929,8 @@
       <c r="E1289" t="inlineStr"/>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
@@ -42041,10 +41971,8 @@
       </c>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1292">
@@ -42071,10 +41999,8 @@
       </c>
       <c r="F1292" t="inlineStr"/>
       <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1293">
@@ -42105,10 +42031,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -42143,10 +42067,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1295">
@@ -42181,10 +42103,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1296">
@@ -42215,10 +42135,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1297">
@@ -42253,10 +42171,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42291,10 +42207,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42325,10 +42239,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -42359,10 +42271,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1301">
@@ -42393,10 +42303,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42427,10 +42335,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42465,10 +42371,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1304">
@@ -42503,10 +42407,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1305">
@@ -42541,10 +42443,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42571,10 +42471,8 @@
       </c>
       <c r="F1306" t="inlineStr"/>
       <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -42601,10 +42499,8 @@
       </c>
       <c r="F1307" t="inlineStr"/>
       <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1308">
@@ -42635,10 +42531,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1309">
@@ -42669,10 +42563,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42707,10 +42599,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1311">
@@ -42741,10 +42631,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1312">
@@ -42779,10 +42667,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1313">
@@ -42813,10 +42699,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42851,10 +42735,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42889,10 +42771,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42919,10 +42799,8 @@
       </c>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -42949,10 +42827,8 @@
       </c>
       <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -42979,10 +42855,8 @@
       </c>
       <c r="F1318" t="inlineStr"/>
       <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43009,10 +42883,8 @@
       </c>
       <c r="F1319" t="inlineStr"/>
       <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43043,10 +42915,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43077,10 +42947,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -43129,10 +42997,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43163,10 +43029,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1325">
@@ -43197,10 +43061,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1326">
@@ -43231,10 +43093,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43265,10 +43125,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43295,10 +43153,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43329,10 +43185,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43363,10 +43217,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43393,10 +43245,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43423,10 +43273,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43453,10 +43301,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43483,10 +43329,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1335">
@@ -43513,10 +43357,8 @@
       </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43543,10 +43385,8 @@
       </c>
       <c r="F1336" t="inlineStr"/>
       <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43573,10 +43413,8 @@
       </c>
       <c r="F1337" t="inlineStr"/>
       <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43603,10 +43441,8 @@
       </c>
       <c r="F1338" t="inlineStr"/>
       <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43637,10 +43473,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43671,10 +43505,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43705,10 +43537,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43739,10 +43569,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43769,10 +43597,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43807,10 +43633,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43833,10 +43657,8 @@
       <c r="E1345" t="inlineStr"/>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43863,10 +43685,8 @@
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1347">
@@ -43893,10 +43713,8 @@
       </c>
       <c r="F1347" t="inlineStr"/>
       <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1348">
@@ -43927,10 +43745,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -43961,10 +43777,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1350">
@@ -43991,10 +43805,8 @@
       </c>
       <c r="F1350" t="inlineStr"/>
       <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44029,10 +43841,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1352">
@@ -44067,10 +43877,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44105,10 +43913,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1354">
@@ -44143,10 +43949,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1355">
@@ -44173,10 +43977,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44211,10 +44013,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44241,10 +44041,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44271,10 +44069,8 @@
       </c>
       <c r="F1358" t="inlineStr"/>
       <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44301,10 +44097,8 @@
       </c>
       <c r="F1359" t="inlineStr"/>
       <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44345,10 +44139,8 @@
       </c>
       <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44379,10 +44171,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44413,10 +44203,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44447,10 +44235,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -44481,10 +44267,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1366">
@@ -44511,10 +44295,8 @@
       </c>
       <c r="F1366" t="inlineStr"/>
       <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44541,10 +44323,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44575,10 +44355,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1369">
@@ -44613,10 +44391,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -44647,10 +44423,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44677,10 +44451,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44707,10 +44479,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44737,10 +44507,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44767,10 +44535,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44797,10 +44563,8 @@
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44827,10 +44591,8 @@
       </c>
       <c r="F1376" t="inlineStr"/>
       <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -44857,10 +44619,8 @@
       </c>
       <c r="F1377" t="inlineStr"/>
       <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -44887,10 +44647,8 @@
       </c>
       <c r="F1378" t="inlineStr"/>
       <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -44921,10 +44679,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -44955,10 +44711,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -44993,10 +44747,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1382">
@@ -45027,10 +44779,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45061,10 +44811,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1384">
@@ -45099,10 +44847,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1385">
@@ -45129,10 +44875,8 @@
       </c>
       <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45163,10 +44907,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45197,10 +44939,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1388">
@@ -45231,10 +44971,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1389">
@@ -45265,10 +45003,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45303,10 +45039,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45341,10 +45075,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1392">
@@ -45367,10 +45099,8 @@
       <c r="E1392" t="inlineStr"/>
       <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -45401,10 +45131,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -45439,10 +45167,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -45473,10 +45199,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -45507,10 +45231,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -45545,10 +45267,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1398">
@@ -45575,10 +45295,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45605,10 +45323,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1400">
@@ -45635,10 +45351,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -45665,10 +45379,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45695,10 +45407,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45725,10 +45435,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45755,10 +45463,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45785,10 +45491,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45815,10 +45519,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45845,10 +45547,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45875,10 +45575,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45905,10 +45603,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45935,10 +45631,8 @@
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45965,10 +45659,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -45995,10 +45687,8 @@
       </c>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46025,10 +45715,8 @@
       </c>
       <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46059,10 +45747,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46089,10 +45775,8 @@
       </c>
       <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46123,10 +45807,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1417">
@@ -46157,10 +45839,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -46191,10 +45871,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46225,10 +45903,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -46263,10 +45939,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46297,10 +45971,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -46331,10 +46003,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46369,10 +46039,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1424">
@@ -46407,10 +46075,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1425">
@@ -46441,10 +46107,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46475,10 +46139,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46509,10 +46171,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46547,10 +46207,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1429">
@@ -46573,10 +46231,8 @@
       <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1430">
@@ -46603,10 +46259,8 @@
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46629,10 +46283,8 @@
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46659,222 +46311,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
+      <c r="H1433" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46886,33 +46556,29 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1440" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46924,33 +46590,29 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1441" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46962,67 +46624,67 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr"/>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
@@ -47034,29 +46696,29 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
@@ -47068,33 +46730,33 @@
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
@@ -47106,215 +46768,215 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1446" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
@@ -47326,57 +46988,57 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47386,125 +47048,89 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr"/>
+      <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1454" t="inlineStr"/>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1455" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr"/>
+      <c r="C1456" t="inlineStr"/>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1456" t="inlineStr"/>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
           <t>3</t>
@@ -47514,31 +47140,27 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
           <t>3</t>
@@ -47548,31 +47170,27 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
           <t>3</t>
@@ -47582,313 +47200,257 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1460" t="inlineStr"/>
+      <c r="F1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1461" t="inlineStr"/>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
+      <c r="G1466" t="inlineStr"/>
       <c r="H1466" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr">
@@ -47900,33 +47462,29 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1469" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
@@ -47938,33 +47496,29 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1470" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -47976,35 +47530,27 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr"/>
       <c r="H1471" t="inlineStr">
         <is>
           <t>3</t>
@@ -48014,35 +47560,27 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -48052,63 +47590,63 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1474" t="inlineStr">
@@ -48120,7 +47658,7 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
@@ -48130,47 +47668,55 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
+      <c r="G1475" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
+      <c r="G1476" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1476" t="inlineStr">
         <is>
           <t>3</t>
@@ -48180,45 +47726,49 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr"/>
-      <c r="C1477" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr"/>
+      <c r="H1477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
           <t>3</t>
@@ -48228,121 +47778,129 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr"/>
-      <c r="C1479" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr"/>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr"/>
+      <c r="H1479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1480" t="inlineStr"/>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
@@ -48358,17 +47916,17 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
@@ -48384,55 +47942,47 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1486" t="inlineStr"/>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
@@ -48444,27 +47994,31 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1487" t="inlineStr">
         <is>
           <t>1</t>
@@ -48474,27 +48028,31 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48502,29 +48060,29 @@
       </c>
     </row>
     <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1489" t="inlineStr"/>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
+      <c r="G1489" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -48532,25 +48090,33 @@
       </c>
     </row>
     <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1490" t="inlineStr"/>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48560,65 +48126,41 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1491" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr"/>
+      <c r="C1491" t="inlineStr"/>
       <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1491" t="inlineStr"/>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
+      <c r="H1491" t="inlineStr"/>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48628,29 +48170,29 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1493" t="inlineStr">
@@ -48662,27 +48204,31 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr"/>
+      <c r="G1494" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1494" t="inlineStr">
         <is>
           <t>3</t>
@@ -48692,27 +48238,31 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
+      <c r="G1495" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1495" t="inlineStr">
         <is>
           <t>3</t>
@@ -48722,97 +48272,93 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1497" t="inlineStr"/>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr">
@@ -48824,31 +48370,27 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
           <t>3</t>
@@ -48858,17 +48400,17 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
@@ -48884,17 +48426,17 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
@@ -48910,17 +48452,17 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
@@ -48936,33 +48478,37 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48972,27 +48518,31 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -49002,17 +48552,21 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
+      <c r="G1505" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1505" t="inlineStr">
         <is>
           <t>2</t>
@@ -49022,7 +48576,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -49032,13 +48586,21 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
+      <c r="G1506" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
@@ -49048,7 +48610,7 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
@@ -49058,11 +48620,15 @@
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
@@ -49074,7 +48640,7 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
@@ -49084,7 +48650,7 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
@@ -49100,7 +48666,7 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
@@ -49110,81 +48676,73 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
+      <c r="G1510" t="inlineStr"/>
+      <c r="H1510" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
         <is>
           <t>3</t>
@@ -49192,7 +48750,11 @@
       </c>
     </row>
     <row r="1512">
-      <c r="A1512" t="inlineStr"/>
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1512" t="inlineStr">
         <is>
           <t>US</t>
@@ -49200,21 +48762,17 @@
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1512" t="inlineStr"/>
       <c r="H1512" t="inlineStr">
         <is>
           <t>3</t>
@@ -49222,7 +48780,11 @@
       </c>
     </row>
     <row r="1513">
-      <c r="A1513" t="inlineStr"/>
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1513" t="inlineStr">
         <is>
           <t>US</t>
@@ -49230,25 +48792,17 @@
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="inlineStr"/>
       <c r="H1513" t="inlineStr">
         <is>
           <t>3</t>
@@ -49258,39 +48812,47 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr"/>
-      <c r="C1514" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr"/>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr"/>
+      <c r="H1514" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1515" t="inlineStr"/>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
@@ -49302,29 +48864,29 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1516" t="inlineStr">
@@ -49336,29 +48898,29 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1517" t="inlineStr">
@@ -49370,31 +48932,27 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
         <is>
           <t>3</t>
@@ -49404,31 +48962,27 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1519" t="inlineStr"/>
       <c r="H1519" t="inlineStr">
         <is>
           <t>3</t>
@@ -49438,684 +48992,84 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1521" t="inlineStr"/>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="inlineStr"/>
       <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr"/>
-      <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr"/>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr">
-        <is>
-          <t>2-Year BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr"/>
-      <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr">
-        <is>
-          <t>BTP€i Auction</t>
-        </is>
-      </c>
-      <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr">
-        <is>
-          <t>2-Year Schatz Auction</t>
-        </is>
-      </c>
-      <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1531" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr"/>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1532" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr"/>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1533">
-      <c r="A1533" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1534">
-      <c r="A1534" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1534" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1534" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
-      <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1535">
-      <c r="A1535" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1535" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1535" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr"/>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1536">
-      <c r="A1536" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1536" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1536" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr"/>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1537">
-      <c r="A1537" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1537" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1537" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr"/>
-      <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1538">
-      <c r="A1538" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1538" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1538" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr"/>
-      <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr"/>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1539">
-      <c r="A1539" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1539" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1539" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1539" t="inlineStr"/>
-      <c r="E1539" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1539" t="inlineStr"/>
-      <c r="G1539" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1540">
-      <c r="A1540" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1540" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1540" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1541" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1541" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr"/>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1542">
-      <c r="A1542" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1542" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1542" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1542" t="inlineStr"/>
-      <c r="E1542" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1541"/>
+  <dimension ref="A1:H1518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41227,10 +41227,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1265">
@@ -41257,10 +41255,8 @@
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -41287,10 +41283,8 @@
       </c>
       <c r="F1266" t="inlineStr"/>
       <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41321,10 +41315,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41355,10 +41347,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41385,10 +41375,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41415,10 +41403,8 @@
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41445,10 +41431,8 @@
       </c>
       <c r="F1271" t="inlineStr"/>
       <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41471,10 +41455,8 @@
       <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1273">
@@ -41505,10 +41487,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41539,10 +41519,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41577,10 +41555,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41611,10 +41587,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -41645,10 +41619,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41675,10 +41647,8 @@
       </c>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41701,10 +41671,8 @@
       </c>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41731,10 +41699,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41753,10 +41719,8 @@
       <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41783,10 +41747,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41813,10 +41775,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41835,10 +41795,8 @@
       <c r="E1284" t="inlineStr"/>
       <c r="F1284" t="inlineStr"/>
       <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41857,10 +41815,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41901,10 +41857,8 @@
       </c>
       <c r="F1287" t="inlineStr"/>
       <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -41931,10 +41885,8 @@
       </c>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -41965,10 +41917,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1290">
@@ -42003,10 +41953,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1290" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1291">
@@ -42041,10 +41989,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1292">
@@ -42075,10 +42021,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1293">
@@ -42113,10 +42057,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1294">
@@ -42151,10 +42093,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1295">
@@ -42185,10 +42125,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1296">
@@ -42219,10 +42157,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1297">
@@ -42253,10 +42189,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42287,10 +42221,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42325,10 +42257,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1300">
@@ -42363,10 +42293,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1301">
@@ -42401,10 +42329,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42431,10 +42357,8 @@
       </c>
       <c r="F1302" t="inlineStr"/>
       <c r="G1302" t="inlineStr"/>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42461,10 +42385,8 @@
       </c>
       <c r="F1303" t="inlineStr"/>
       <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
@@ -42495,10 +42417,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1305">
@@ -42529,10 +42449,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42567,10 +42485,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1307">
@@ -42601,10 +42517,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1308">
@@ -42639,10 +42553,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1309">
@@ -42673,10 +42585,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42711,10 +42621,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1311">
@@ -42749,10 +42657,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1312">
@@ -42779,10 +42685,8 @@
       </c>
       <c r="F1312" t="inlineStr"/>
       <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1313">
@@ -42809,10 +42713,8 @@
       </c>
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42839,10 +42741,8 @@
       </c>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42869,10 +42769,8 @@
       </c>
       <c r="F1315" t="inlineStr"/>
       <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42903,10 +42801,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1317">
@@ -42937,10 +42833,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -42989,10 +42883,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43023,10 +42915,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43057,10 +42947,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1322">
@@ -43091,10 +42979,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1323">
@@ -43125,10 +43011,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43155,10 +43039,8 @@
       </c>
       <c r="F1324" t="inlineStr"/>
       <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1325">
@@ -43189,10 +43071,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1326">
@@ -43223,10 +43103,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43253,10 +43131,8 @@
       </c>
       <c r="F1327" t="inlineStr"/>
       <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43283,10 +43159,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43313,10 +43187,8 @@
       </c>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43343,10 +43215,8 @@
       </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1331">
@@ -43373,10 +43243,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43403,10 +43271,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43433,10 +43299,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43463,10 +43327,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
@@ -43501,10 +43363,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43535,10 +43395,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43573,10 +43431,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43607,10 +43463,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43637,10 +43491,8 @@
       </c>
       <c r="F1339" t="inlineStr"/>
       <c r="G1339" t="inlineStr"/>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43675,10 +43527,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43701,10 +43551,8 @@
       <c r="E1341" t="inlineStr"/>
       <c r="F1341" t="inlineStr"/>
       <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1342">
@@ -43731,10 +43579,8 @@
       </c>
       <c r="F1342" t="inlineStr"/>
       <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43761,10 +43607,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43795,10 +43639,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43829,10 +43671,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43859,10 +43699,8 @@
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1347">
@@ -43897,10 +43735,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1348">
@@ -43935,10 +43771,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -43973,10 +43807,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1350">
@@ -44011,10 +43843,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44041,10 +43871,8 @@
       </c>
       <c r="F1351" t="inlineStr"/>
       <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1352">
@@ -44079,10 +43907,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44109,10 +43935,8 @@
       </c>
       <c r="F1353" t="inlineStr"/>
       <c r="G1353" t="inlineStr"/>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1354">
@@ -44139,10 +43963,8 @@
       </c>
       <c r="F1354" t="inlineStr"/>
       <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1355">
@@ -44169,10 +43991,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44213,10 +44033,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44247,10 +44065,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44281,10 +44097,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44315,10 +44129,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1361">
@@ -44349,10 +44161,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44379,10 +44189,8 @@
       </c>
       <c r="F1362" t="inlineStr"/>
       <c r="G1362" t="inlineStr"/>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44409,10 +44217,8 @@
       </c>
       <c r="F1363" t="inlineStr"/>
       <c r="G1363" t="inlineStr"/>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44443,10 +44249,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1365">
@@ -44481,10 +44285,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1366">
@@ -44515,10 +44317,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44545,10 +44345,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44575,10 +44373,8 @@
       </c>
       <c r="F1368" t="inlineStr"/>
       <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -44605,10 +44401,8 @@
       </c>
       <c r="F1369" t="inlineStr"/>
       <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1370">
@@ -44635,10 +44429,8 @@
       </c>
       <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44665,10 +44457,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44695,10 +44485,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44725,10 +44513,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44755,10 +44541,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44789,10 +44573,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44823,10 +44605,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1377">
@@ -44861,10 +44641,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1378">
@@ -44895,10 +44673,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -44929,10 +44705,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1380">
@@ -44967,10 +44741,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -44997,10 +44769,8 @@
       </c>
       <c r="F1381" t="inlineStr"/>
       <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -45031,10 +44801,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45065,10 +44833,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
@@ -45099,10 +44865,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1385">
@@ -45133,10 +44897,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45171,10 +44933,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1387">
@@ -45209,10 +44969,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1388">
@@ -45235,10 +44993,8 @@
       <c r="E1388" t="inlineStr"/>
       <c r="F1388" t="inlineStr"/>
       <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1389">
@@ -45269,10 +45025,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45307,10 +45061,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45341,10 +45093,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1392">
@@ -45375,10 +45125,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1393">
@@ -45413,10 +45161,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1394">
@@ -45443,10 +45189,8 @@
       </c>
       <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr"/>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1395">
@@ -45473,10 +45217,8 @@
       </c>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1396">
@@ -45503,10 +45245,8 @@
       </c>
       <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1397">
@@ -45533,10 +45273,8 @@
       </c>
       <c r="F1397" t="inlineStr"/>
       <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1398">
@@ -45563,10 +45301,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45593,10 +45329,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -45623,10 +45357,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1401">
@@ -45653,10 +45385,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45683,10 +45413,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45713,10 +45441,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45743,10 +45469,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45773,10 +45497,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45803,10 +45525,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45833,10 +45553,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45863,10 +45581,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45893,10 +45609,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45927,10 +45641,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45957,10 +45669,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -45991,10 +45701,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1413">
@@ -46025,10 +45733,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1414">
@@ -46059,10 +45765,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46093,10 +45797,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1416">
@@ -46131,10 +45833,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1417">
@@ -46165,10 +45865,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -46199,10 +45897,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46237,10 +45933,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -46275,10 +45969,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46309,10 +46001,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1422">
@@ -46343,10 +46033,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46377,10 +46065,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -46415,10 +46101,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1425">
@@ -46441,10 +46125,8 @@
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
       <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46471,10 +46153,8 @@
       </c>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46497,10 +46177,8 @@
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46527,222 +46205,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr"/>
-      <c r="C1429" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1429" t="inlineStr"/>
-      <c r="E1429" t="inlineStr"/>
+      <c r="E1429" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr"/>
+      <c r="H1429" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr"/>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1430" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr"/>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr"/>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1433" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1433" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
@@ -46754,33 +46450,29 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1436" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
@@ -46792,33 +46484,29 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
@@ -46830,67 +46518,67 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46902,29 +46590,29 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46936,33 +46624,33 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46974,215 +46662,215 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1442" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1442" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1446" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr"/>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
@@ -47194,57 +46882,57 @@
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
-      <c r="E1448" t="inlineStr"/>
+      <c r="E1448" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1449" t="inlineStr"/>
       <c r="H1449" t="inlineStr">
         <is>
           <t>3</t>
@@ -47254,125 +46942,89 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1450" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr"/>
+      <c r="C1450" t="inlineStr"/>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr"/>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1450" t="inlineStr"/>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1451" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1452" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr"/>
+      <c r="C1452" t="inlineStr"/>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1452" t="inlineStr"/>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1452" t="inlineStr"/>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47382,31 +47034,27 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1454" t="inlineStr"/>
       <c r="H1454" t="inlineStr">
         <is>
           <t>3</t>
@@ -47416,31 +47064,27 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
           <t>3</t>
@@ -47450,313 +47094,257 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1456" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
+      <c r="F1456" t="inlineStr"/>
+      <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1457" t="inlineStr"/>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1462" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1463" t="inlineStr"/>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1464" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1464" t="inlineStr">
@@ -47768,33 +47356,29 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1465" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1465" t="inlineStr">
@@ -47806,33 +47390,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47844,35 +47424,27 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1467" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
           <t>3</t>
@@ -47882,35 +47454,27 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr"/>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47920,63 +47484,63 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -47988,7 +47552,7 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
@@ -47998,47 +47562,55 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -48048,45 +47620,49 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr"/>
-      <c r="C1473" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr"/>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr"/>
-      <c r="H1473" t="inlineStr"/>
+      <c r="H1473" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
-      <c r="E1474" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1474" t="inlineStr"/>
       <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1474" t="inlineStr"/>
       <c r="H1474" t="inlineStr">
         <is>
           <t>3</t>
@@ -48096,121 +47672,129 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr"/>
-      <c r="C1475" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr"/>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr"/>
-      <c r="H1475" t="inlineStr"/>
+      <c r="H1475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1476" t="inlineStr"/>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
+      <c r="G1477" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
@@ -48226,17 +47810,17 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
@@ -48252,55 +47836,47 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1482" t="inlineStr"/>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
@@ -48312,27 +47888,31 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1483" t="inlineStr">
         <is>
           <t>1</t>
@@ -48342,27 +47922,31 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr"/>
+      <c r="G1484" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1484" t="inlineStr">
         <is>
           <t>3</t>
@@ -48370,29 +47954,29 @@
       </c>
     </row>
     <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1485" t="inlineStr"/>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
+      <c r="G1485" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -48400,25 +47984,33 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1486" t="inlineStr"/>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr"/>
+      <c r="E1486" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1486" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1486" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48428,65 +48020,41 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1487" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr"/>
+      <c r="C1487" t="inlineStr"/>
       <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1487" t="inlineStr"/>
+      <c r="H1487" t="inlineStr"/>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1488" t="inlineStr"/>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48496,29 +48064,29 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
@@ -48530,27 +48098,31 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48560,27 +48132,31 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -48590,97 +48166,93 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1494" t="inlineStr">
@@ -48692,31 +48264,27 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1495" t="inlineStr"/>
       <c r="H1495" t="inlineStr">
         <is>
           <t>3</t>
@@ -48726,17 +48294,17 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
@@ -48752,17 +48320,17 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
@@ -48778,17 +48346,17 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
@@ -48804,33 +48372,37 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
@@ -48840,27 +48412,31 @@
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
@@ -48870,17 +48446,21 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
+      <c r="G1501" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1501" t="inlineStr">
         <is>
           <t>2</t>
@@ -48890,7 +48470,7 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -48900,13 +48480,21 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr"/>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
+      <c r="G1502" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1502" t="inlineStr">
         <is>
           <t>3</t>
@@ -48916,7 +48504,7 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -48926,11 +48514,15 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
@@ -48942,7 +48534,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48952,7 +48544,7 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
@@ -48968,7 +48560,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -48978,81 +48570,73 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr"/>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr">
+      <c r="G1506" t="inlineStr"/>
+      <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1507" t="inlineStr"/>
       <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
         <is>
           <t>3</t>
@@ -49060,7 +48644,11 @@
       </c>
     </row>
     <row r="1508">
-      <c r="A1508" t="inlineStr"/>
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1508" t="inlineStr">
         <is>
           <t>US</t>
@@ -49068,21 +48656,17 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
           <t>3</t>
@@ -49090,7 +48674,11 @@
       </c>
     </row>
     <row r="1509">
-      <c r="A1509" t="inlineStr"/>
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1509" t="inlineStr">
         <is>
           <t>US</t>
@@ -49098,25 +48686,17 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1509" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
           <t>3</t>
@@ -49126,39 +48706,47 @@
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr"/>
-      <c r="C1510" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr"/>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr"/>
+      <c r="H1510" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
@@ -49170,29 +48758,29 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1512" t="inlineStr">
@@ -49204,29 +48792,29 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
@@ -49238,31 +48826,27 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1514" t="inlineStr"/>
       <c r="H1514" t="inlineStr">
         <is>
           <t>3</t>
@@ -49272,31 +48856,27 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
         <is>
           <t>3</t>
@@ -49306,770 +48886,84 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1516" t="inlineStr"/>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1517" t="inlineStr"/>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1519" t="inlineStr"/>
-      <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr">
-        <is>
-          <t>2-Year BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr"/>
-      <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr">
-        <is>
-          <t>BTP€i Auction</t>
-        </is>
-      </c>
-      <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr"/>
-      <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1522" t="inlineStr">
-        <is>
-          <t>2-Year Schatz Auction</t>
-        </is>
-      </c>
-      <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr"/>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr"/>
-      <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr"/>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1531" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr"/>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1532" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr"/>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1533">
-      <c r="A1533" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr"/>
-      <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1534">
-      <c r="A1534" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1534" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1534" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
-      <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1535">
-      <c r="A1535" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1535" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1535" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1536">
-      <c r="A1536" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1536" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1536" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1537">
-      <c r="A1537" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1537" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1537" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1538">
-      <c r="A1538" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1538" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1538" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr"/>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1539">
-      <c r="A1539" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1539" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1539" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="D1539" t="inlineStr"/>
-      <c r="E1539" t="inlineStr"/>
-      <c r="F1539" t="inlineStr"/>
-      <c r="G1539" t="inlineStr"/>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1540">
-      <c r="A1540" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1540" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1540" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr"/>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1541" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1541" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr"/>
-      <c r="H1541" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1518"/>
+  <dimension ref="A1:H1495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46233,10 +46233,8 @@
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -46267,10 +46265,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46301,10 +46297,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46335,10 +46329,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -46373,10 +46365,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1434">
@@ -46407,10 +46397,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1435">
@@ -46441,10 +46429,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -46475,10 +46461,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1437">
@@ -46509,10 +46493,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1438">
@@ -46543,10 +46525,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1439">
@@ -46581,10 +46561,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1440">
@@ -46615,10 +46593,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -46653,10 +46629,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1442">
@@ -46691,10 +46665,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
@@ -46729,10 +46701,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -46767,10 +46737,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -46805,10 +46773,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -46839,10 +46805,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -46873,10 +46837,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -46903,10 +46865,8 @@
       </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -46933,10 +46893,8 @@
       </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -46981,130 +46939,136 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr"/>
-      <c r="C1452" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1452" t="inlineStr"/>
       <c r="E1452" t="inlineStr"/>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr"/>
+      <c r="H1452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1453" t="inlineStr"/>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr"/>
+      <c r="G1454" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
@@ -47120,17 +47084,17 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
@@ -47146,55 +47110,47 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1458" t="inlineStr"/>
       <c r="F1458" t="inlineStr"/>
       <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1459" t="inlineStr"/>
       <c r="F1459" t="inlineStr"/>
       <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
@@ -47206,27 +47162,31 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1460" t="inlineStr">
         <is>
           <t>1</t>
@@ -47236,27 +47196,31 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
+      <c r="G1461" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1461" t="inlineStr">
         <is>
           <t>3</t>
@@ -47264,29 +47228,29 @@
       </c>
     </row>
     <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1462" t="inlineStr"/>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1462" t="inlineStr">
         <is>
           <t>3</t>
@@ -47294,25 +47258,33 @@
       </c>
     </row>
     <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1463" t="inlineStr"/>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
+      <c r="E1463" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1463" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1463" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1463" t="inlineStr">
         <is>
           <t>3</t>
@@ -47322,65 +47294,41 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1464" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr"/>
+      <c r="C1464" t="inlineStr"/>
       <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1464" t="inlineStr"/>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
+      <c r="H1464" t="inlineStr"/>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
           <t>3</t>
@@ -47390,29 +47338,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47424,27 +47372,31 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1467" t="inlineStr">
         <is>
           <t>3</t>
@@ -47454,27 +47406,31 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47484,97 +47440,93 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1470" t="inlineStr"/>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
@@ -47586,31 +47538,27 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -47620,17 +47568,17 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
@@ -47646,17 +47594,17 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
@@ -47672,17 +47620,17 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
@@ -47698,33 +47646,37 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
@@ -47734,27 +47686,31 @@
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr"/>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
@@ -47764,17 +47720,21 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr"/>
+      <c r="G1478" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1478" t="inlineStr">
         <is>
           <t>2</t>
@@ -47784,7 +47744,7 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
@@ -47794,13 +47754,21 @@
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
-      <c r="E1479" t="inlineStr"/>
+      <c r="E1479" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
+      <c r="G1479" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1479" t="inlineStr">
         <is>
           <t>3</t>
@@ -47810,7 +47778,7 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
@@ -47820,11 +47788,15 @@
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr"/>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
@@ -47836,7 +47808,7 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
@@ -47846,7 +47818,7 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
@@ -47862,7 +47834,7 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
@@ -47872,81 +47844,73 @@
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr"/>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr">
+      <c r="G1483" t="inlineStr"/>
+      <c r="H1483" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
-      <c r="E1484" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1484" t="inlineStr"/>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1484" t="inlineStr"/>
       <c r="H1484" t="inlineStr">
         <is>
           <t>3</t>
@@ -47954,7 +47918,11 @@
       </c>
     </row>
     <row r="1485">
-      <c r="A1485" t="inlineStr"/>
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1485" t="inlineStr">
         <is>
           <t>US</t>
@@ -47962,21 +47930,17 @@
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -47984,7 +47948,11 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr"/>
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1486" t="inlineStr">
         <is>
           <t>US</t>
@@ -47992,25 +47960,17 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1486" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1486" t="inlineStr"/>
+      <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48020,39 +47980,47 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr"/>
-      <c r="C1487" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr"/>
+      <c r="H1487" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
-      <c r="E1488" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
       <c r="H1488" t="inlineStr">
@@ -48064,29 +48032,29 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
@@ -48098,29 +48066,29 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
@@ -48132,31 +48100,27 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -48166,31 +48130,27 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48200,770 +48160,84 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
-      <c r="E1493" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1493" t="inlineStr"/>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1494" t="inlineStr"/>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
       <c r="G1495" t="inlineStr"/>
       <c r="H1495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1496">
-      <c r="A1496" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1496" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1496" t="inlineStr">
-        <is>
-          <t>BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1496" t="inlineStr"/>
-      <c r="E1496" t="inlineStr"/>
-      <c r="F1496" t="inlineStr"/>
-      <c r="G1496" t="inlineStr"/>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1497" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1497" t="inlineStr">
-        <is>
-          <t>2-Year BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1497" t="inlineStr"/>
-      <c r="E1497" t="inlineStr"/>
-      <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr"/>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1498" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1498" t="inlineStr">
-        <is>
-          <t>BTP€i Auction</t>
-        </is>
-      </c>
-      <c r="D1498" t="inlineStr"/>
-      <c r="E1498" t="inlineStr"/>
-      <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr"/>
-      <c r="H1498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1499" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1499" t="inlineStr">
-        <is>
-          <t>2-Year Schatz Auction</t>
-        </is>
-      </c>
-      <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
-      <c r="H1499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1500" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1500" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="F1500" t="inlineStr"/>
-      <c r="G1500" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1500" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1501" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1501" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1501" t="inlineStr"/>
-      <c r="E1501" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1501" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1502">
-      <c r="A1502" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1502" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1502" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H1502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1503">
-      <c r="A1503" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1503" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1503" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1503" t="inlineStr"/>
-      <c r="G1503" t="inlineStr"/>
-      <c r="H1503" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1504">
-      <c r="A1504" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1504" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1504" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
-      <c r="F1504" t="inlineStr"/>
-      <c r="G1504" t="inlineStr"/>
-      <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1505" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1505" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1508" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1509" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1510" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1513" t="inlineStr"/>
-      <c r="E1513" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1514" t="inlineStr"/>
-      <c r="E1514" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1515" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr"/>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr"/>
-      <c r="H1518" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1546"/>
+  <dimension ref="A1:H1523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40903,10 +40903,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1255">
@@ -40941,10 +40939,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H1255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1256">
@@ -40979,10 +40975,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1256" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1257">
@@ -41017,10 +41011,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1258">
@@ -41051,10 +41043,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1259">
@@ -41089,10 +41079,8 @@
           <t>-2.3%</t>
         </is>
       </c>
-      <c r="H1259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1260">
@@ -41123,10 +41111,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H1260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1261">
@@ -41161,10 +41147,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1262">
@@ -41191,10 +41175,8 @@
           <t>€-4.2B</t>
         </is>
       </c>
-      <c r="H1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1263">
@@ -41213,10 +41195,8 @@
       <c r="E1263" t="inlineStr"/>
       <c r="F1263" t="inlineStr"/>
       <c r="G1263" t="inlineStr"/>
-      <c r="H1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1264">
@@ -41265,10 +41245,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1266">
@@ -41303,10 +41281,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41337,10 +41313,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41371,10 +41345,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41401,10 +41373,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41431,10 +41401,8 @@
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41465,10 +41433,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41499,10 +41465,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1273">
@@ -41529,10 +41493,8 @@
       </c>
       <c r="F1273" t="inlineStr"/>
       <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41559,10 +41521,8 @@
       </c>
       <c r="F1274" t="inlineStr"/>
       <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41589,10 +41549,8 @@
       </c>
       <c r="F1275" t="inlineStr"/>
       <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41615,10 +41573,8 @@
       <c r="E1276" t="inlineStr"/>
       <c r="F1276" t="inlineStr"/>
       <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1277">
@@ -41649,10 +41605,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41683,10 +41637,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41721,10 +41673,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41755,10 +41705,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41789,10 +41737,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41819,10 +41765,8 @@
       </c>
       <c r="F1282" t="inlineStr"/>
       <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41845,10 +41789,8 @@
       </c>
       <c r="F1283" t="inlineStr"/>
       <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41875,10 +41817,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41897,10 +41837,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41927,10 +41865,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1287">
@@ -41957,10 +41893,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -41979,10 +41913,8 @@
       <c r="E1288" t="inlineStr"/>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -42001,10 +41933,8 @@
       <c r="E1289" t="inlineStr"/>
       <c r="F1289" t="inlineStr"/>
       <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1290">
@@ -42045,10 +41975,8 @@
       </c>
       <c r="F1291" t="inlineStr"/>
       <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1292">
@@ -42075,10 +42003,8 @@
       </c>
       <c r="F1292" t="inlineStr"/>
       <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1293">
@@ -42109,10 +42035,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1294">
@@ -42147,10 +42071,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1295">
@@ -42185,10 +42107,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1296">
@@ -42219,10 +42139,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1297">
@@ -42257,10 +42175,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42295,10 +42211,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42329,10 +42243,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1300">
@@ -42363,10 +42275,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1301">
@@ -42397,10 +42307,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42431,10 +42339,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42469,10 +42375,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1304">
@@ -42507,10 +42411,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1305">
@@ -42545,10 +42447,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42575,10 +42475,8 @@
       </c>
       <c r="F1306" t="inlineStr"/>
       <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1307">
@@ -42605,10 +42503,8 @@
       </c>
       <c r="F1307" t="inlineStr"/>
       <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1308">
@@ -42639,10 +42535,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1309">
@@ -42673,10 +42567,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42711,10 +42603,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1311">
@@ -42745,10 +42635,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1312">
@@ -42783,10 +42671,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1313">
@@ -42817,10 +42703,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42855,10 +42739,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42893,10 +42775,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42923,10 +42803,8 @@
       </c>
       <c r="F1316" t="inlineStr"/>
       <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1317">
@@ -42953,10 +42831,8 @@
       </c>
       <c r="F1317" t="inlineStr"/>
       <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -42983,10 +42859,8 @@
       </c>
       <c r="F1318" t="inlineStr"/>
       <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1319">
@@ -43013,10 +42887,8 @@
       </c>
       <c r="F1319" t="inlineStr"/>
       <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43047,10 +42919,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43081,10 +42951,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -43133,10 +43001,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43167,10 +43033,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1325">
@@ -43201,10 +43065,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1326">
@@ -43235,10 +43097,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43269,10 +43129,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43299,10 +43157,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43333,10 +43189,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43367,10 +43221,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -43397,10 +43249,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43427,10 +43277,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43457,10 +43305,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43487,10 +43333,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1335">
@@ -43517,10 +43361,8 @@
       </c>
       <c r="F1335" t="inlineStr"/>
       <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43547,10 +43389,8 @@
       </c>
       <c r="F1336" t="inlineStr"/>
       <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43577,10 +43417,8 @@
       </c>
       <c r="F1337" t="inlineStr"/>
       <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43607,10 +43445,8 @@
       </c>
       <c r="F1338" t="inlineStr"/>
       <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43645,10 +43481,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43679,10 +43513,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43717,10 +43549,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1342">
@@ -43751,10 +43581,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43781,10 +43609,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43819,10 +43645,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43845,10 +43669,8 @@
       <c r="E1345" t="inlineStr"/>
       <c r="F1345" t="inlineStr"/>
       <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43875,10 +43697,8 @@
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1347">
@@ -43905,10 +43725,8 @@
       </c>
       <c r="F1347" t="inlineStr"/>
       <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1348">
@@ -43939,10 +43757,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -43973,10 +43789,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1350">
@@ -44003,10 +43817,8 @@
       </c>
       <c r="F1350" t="inlineStr"/>
       <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44041,10 +43853,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1352">
@@ -44079,10 +43889,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44117,10 +43925,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1354">
@@ -44155,10 +43961,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1355">
@@ -44185,10 +43989,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44223,10 +44025,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1357">
@@ -44253,10 +44053,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44283,10 +44081,8 @@
       </c>
       <c r="F1358" t="inlineStr"/>
       <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44313,10 +44109,8 @@
       </c>
       <c r="F1359" t="inlineStr"/>
       <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44357,10 +44151,8 @@
       </c>
       <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44391,10 +44183,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44425,10 +44215,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44459,10 +44247,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1365">
@@ -44493,10 +44279,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1366">
@@ -44523,10 +44307,8 @@
       </c>
       <c r="F1366" t="inlineStr"/>
       <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44553,10 +44335,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44587,10 +44367,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1369">
@@ -44625,10 +44403,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
@@ -44659,10 +44435,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44689,10 +44463,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44719,10 +44491,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44749,10 +44519,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44779,10 +44547,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44809,10 +44575,8 @@
       </c>
       <c r="F1375" t="inlineStr"/>
       <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44839,10 +44603,8 @@
       </c>
       <c r="F1376" t="inlineStr"/>
       <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1377">
@@ -44869,10 +44631,8 @@
       </c>
       <c r="F1377" t="inlineStr"/>
       <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1378">
@@ -44899,10 +44659,8 @@
       </c>
       <c r="F1378" t="inlineStr"/>
       <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -44933,10 +44691,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1380">
@@ -44967,10 +44723,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -45005,10 +44759,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1382">
@@ -45039,10 +44791,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45073,10 +44823,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1384">
@@ -45111,10 +44859,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1385">
@@ -45141,10 +44887,8 @@
       </c>
       <c r="F1385" t="inlineStr"/>
       <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45175,10 +44919,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1387">
@@ -45209,10 +44951,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1388">
@@ -45243,10 +44983,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1389">
@@ -45277,10 +45015,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45315,10 +45051,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45353,10 +45087,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1392">
@@ -45379,10 +45111,8 @@
       <c r="E1392" t="inlineStr"/>
       <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1393">
@@ -45413,10 +45143,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1394">
@@ -45451,10 +45179,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1395">
@@ -45485,10 +45211,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1396">
@@ -45519,10 +45243,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1397">
@@ -45557,10 +45279,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1398">
@@ -45587,10 +45307,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45617,10 +45335,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1400">
@@ -45647,10 +45363,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -45677,10 +45391,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45707,10 +45419,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45737,10 +45447,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45767,10 +45475,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45797,10 +45503,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45827,10 +45531,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45857,10 +45559,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45887,10 +45587,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45917,10 +45615,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45947,10 +45643,8 @@
       </c>
       <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr"/>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45977,10 +45671,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -46007,10 +45699,8 @@
       </c>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr"/>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1413">
@@ -46037,10 +45727,8 @@
       </c>
       <c r="F1413" t="inlineStr"/>
       <c r="G1413" t="inlineStr"/>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1414">
@@ -46071,10 +45759,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46101,10 +45787,8 @@
       </c>
       <c r="F1415" t="inlineStr"/>
       <c r="G1415" t="inlineStr"/>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1416">
@@ -46135,10 +45819,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1417">
@@ -46169,10 +45851,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1418">
@@ -46203,10 +45883,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46237,10 +45915,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -46275,10 +45951,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46309,10 +45983,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1422">
@@ -46343,10 +46015,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46381,10 +46051,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1424">
@@ -46419,10 +46087,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1425">
@@ -46453,10 +46119,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46487,10 +46151,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46521,10 +46183,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46559,10 +46219,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1429">
@@ -46585,10 +46243,8 @@
       <c r="E1429" t="inlineStr"/>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1430">
@@ -46615,10 +46271,8 @@
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr"/>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46641,10 +46295,8 @@
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr"/>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46671,222 +46323,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
+      <c r="E1433" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1433" t="inlineStr"/>
       <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
+      <c r="H1433" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1437" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr"/>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46898,33 +46568,29 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1440" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46936,33 +46602,29 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1441" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1441" t="inlineStr"/>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46974,67 +46636,67 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr"/>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
@@ -47046,29 +46708,29 @@
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr"/>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
@@ -47080,33 +46742,33 @@
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
@@ -47118,215 +46780,215 @@
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1446" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1450" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
@@ -47338,57 +47000,57 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr"/>
+      <c r="E1452" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47398,125 +47060,89 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1454" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1454" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1454" t="inlineStr"/>
+      <c r="C1454" t="inlineStr"/>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
       <c r="G1454" t="inlineStr"/>
-      <c r="H1454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1454" t="inlineStr"/>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1455" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1456" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1456" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1456" t="inlineStr"/>
+      <c r="C1456" t="inlineStr"/>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
       <c r="F1456" t="inlineStr"/>
       <c r="G1456" t="inlineStr"/>
-      <c r="H1456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1456" t="inlineStr"/>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
           <t>3</t>
@@ -47526,31 +47152,27 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
           <t>3</t>
@@ -47560,31 +47182,27 @@
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
           <t>3</t>
@@ -47594,313 +47212,257 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
-      <c r="E1460" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1460" t="inlineStr"/>
+      <c r="F1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
-      <c r="E1461" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1461" t="inlineStr"/>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1466" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
+      <c r="G1466" t="inlineStr"/>
       <c r="H1466" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
-      <c r="E1467" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1467" t="inlineStr"/>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr">
@@ -47912,33 +47474,29 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1469" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
@@ -47950,33 +47508,29 @@
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1470" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -47988,35 +47542,27 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1471" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr"/>
       <c r="H1471" t="inlineStr">
         <is>
           <t>3</t>
@@ -48026,35 +47572,27 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -48064,63 +47602,63 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr"/>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1474" t="inlineStr">
@@ -48132,7 +47670,7 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
@@ -48142,47 +47680,55 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr"/>
-      <c r="G1475" t="inlineStr"/>
+      <c r="G1475" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1476" t="inlineStr"/>
-      <c r="G1476" t="inlineStr"/>
+      <c r="G1476" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1476" t="inlineStr">
         <is>
           <t>3</t>
@@ -48192,45 +47738,49 @@
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1477" t="inlineStr"/>
-      <c r="C1477" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1477" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1477" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1477" t="inlineStr"/>
       <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr"/>
-      <c r="H1477" t="inlineStr"/>
+      <c r="H1477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
-      <c r="E1478" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1478" t="inlineStr"/>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
           <t>3</t>
@@ -48240,121 +47790,129 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1479" t="inlineStr"/>
-      <c r="C1479" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1479" t="inlineStr"/>
       <c r="E1479" t="inlineStr"/>
       <c r="F1479" t="inlineStr"/>
       <c r="G1479" t="inlineStr"/>
-      <c r="H1479" t="inlineStr"/>
+      <c r="H1479" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1480" t="inlineStr"/>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
-      <c r="G1481" t="inlineStr"/>
+      <c r="G1481" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
@@ -48370,17 +47928,17 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
@@ -48396,55 +47954,47 @@
     <row r="1485">
       <c r="A1485" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
-      <c r="E1485" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1485" t="inlineStr"/>
       <c r="F1485" t="inlineStr"/>
       <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1486">
       <c r="A1486" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1486" t="inlineStr"/>
       <c r="F1486" t="inlineStr"/>
       <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
@@ -48456,27 +48006,31 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr"/>
+      <c r="G1487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1487" t="inlineStr">
         <is>
           <t>1</t>
@@ -48486,27 +48040,31 @@
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr"/>
+      <c r="G1488" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48514,29 +48072,29 @@
       </c>
     </row>
     <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1489" t="inlineStr"/>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
-      <c r="G1489" t="inlineStr"/>
+      <c r="G1489" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1489" t="inlineStr">
         <is>
           <t>3</t>
@@ -48544,25 +48102,33 @@
       </c>
     </row>
     <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1490" t="inlineStr"/>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
-      <c r="E1490" t="inlineStr"/>
-      <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="E1490" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48572,65 +48138,41 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1491" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1491" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr"/>
+      <c r="C1491" t="inlineStr"/>
       <c r="D1491" t="inlineStr"/>
-      <c r="E1491" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1491" t="inlineStr"/>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1491" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
+      <c r="H1491" t="inlineStr"/>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48640,29 +48182,29 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1493" t="inlineStr">
@@ -48674,27 +48216,31 @@
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr"/>
+      <c r="G1494" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1494" t="inlineStr">
         <is>
           <t>3</t>
@@ -48704,27 +48250,31 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr"/>
+      <c r="G1495" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1495" t="inlineStr">
         <is>
           <t>3</t>
@@ -48734,97 +48284,93 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr"/>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1497" t="inlineStr"/>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr"/>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr">
@@ -48836,31 +48382,27 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
           <t>3</t>
@@ -48870,17 +48412,17 @@
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
@@ -48896,17 +48438,17 @@
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
@@ -48922,17 +48464,17 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
@@ -48948,33 +48490,37 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48984,27 +48530,31 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -49014,17 +48564,21 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
+      <c r="G1505" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1505" t="inlineStr">
         <is>
           <t>2</t>
@@ -49034,7 +48588,7 @@
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
@@ -49044,13 +48598,21 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr"/>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
+      <c r="G1506" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
@@ -49060,7 +48622,7 @@
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
@@ -49070,11 +48632,15 @@
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
+      <c r="E1507" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1507" t="inlineStr"/>
       <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
@@ -49086,7 +48652,7 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
@@ -49096,7 +48662,7 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
@@ -49112,7 +48678,7 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1509" t="inlineStr">
@@ -49122,81 +48688,73 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
+      <c r="E1509" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1509" t="inlineStr"/>
       <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr">
+      <c r="G1510" t="inlineStr"/>
+      <c r="H1510" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
         <is>
           <t>3</t>
@@ -49204,7 +48762,11 @@
       </c>
     </row>
     <row r="1512">
-      <c r="A1512" t="inlineStr"/>
+      <c r="A1512" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1512" t="inlineStr">
         <is>
           <t>US</t>
@@ -49212,21 +48774,17 @@
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1512" t="inlineStr"/>
       <c r="H1512" t="inlineStr">
         <is>
           <t>3</t>
@@ -49234,7 +48792,11 @@
       </c>
     </row>
     <row r="1513">
-      <c r="A1513" t="inlineStr"/>
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1513" t="inlineStr">
         <is>
           <t>US</t>
@@ -49242,25 +48804,17 @@
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="inlineStr"/>
       <c r="H1513" t="inlineStr">
         <is>
           <t>3</t>
@@ -49270,39 +48824,47 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr"/>
-      <c r="C1514" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1514" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr"/>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr"/>
+      <c r="H1514" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1515" t="inlineStr"/>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
@@ -49314,29 +48876,29 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1516" t="inlineStr">
@@ -49348,29 +48910,29 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1517" t="inlineStr">
@@ -49382,31 +48944,27 @@
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1518" t="inlineStr"/>
       <c r="H1518" t="inlineStr">
         <is>
           <t>3</t>
@@ -49416,31 +48974,27 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1519" t="inlineStr"/>
       <c r="H1519" t="inlineStr">
         <is>
           <t>3</t>
@@ -49450,87 +49004,79 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1520" t="inlineStr"/>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="inlineStr"/>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1521" t="inlineStr"/>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr"/>
@@ -49544,17 +49090,17 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
@@ -49563,684 +49109,6 @@
       <c r="G1523" t="inlineStr"/>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr">
-        <is>
-          <t>2-Year BTP Short Term Auction</t>
-        </is>
-      </c>
-      <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr"/>
-      <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr"/>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>05:10 AM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr">
-        <is>
-          <t>BTP€i Auction</t>
-        </is>
-      </c>
-      <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr"/>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr">
-        <is>
-          <t>2-Year Schatz Auction</t>
-        </is>
-      </c>
-      <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr">
-        <is>
-          <t>-1.1%</t>
-        </is>
-      </c>
-      <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H1527" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
-        </is>
-      </c>
-      <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1531" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/25</t>
-        </is>
-      </c>
-      <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr"/>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr"/>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1532" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr"/>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1533">
-      <c r="A1533" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1534">
-      <c r="A1534" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1534" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1534" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
-      <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1535">
-      <c r="A1535" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1535" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1535" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr"/>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1536">
-      <c r="A1536" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1536" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1536" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr"/>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1537">
-      <c r="A1537" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1537" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1537" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr"/>
-      <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1538">
-      <c r="A1538" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1538" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1538" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr"/>
-      <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr"/>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1539">
-      <c r="A1539" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1539" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1539" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1539" t="inlineStr"/>
-      <c r="E1539" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1539" t="inlineStr"/>
-      <c r="G1539" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1540">
-      <c r="A1540" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1540" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1540" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1541" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1541" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr"/>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1542">
-      <c r="A1542" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1542" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1542" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1542" t="inlineStr"/>
-      <c r="E1542" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1543">
-      <c r="A1543" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1543" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1543" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr"/>
-      <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr"/>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1544" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1544" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr"/>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1545" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr"/>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1546" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1546" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr"/>
-      <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr"/>
-      <c r="H1546" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1550"/>
+  <dimension ref="A1:H1527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41227,10 +41227,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1265">
@@ -41257,10 +41255,8 @@
       </c>
       <c r="F1265" t="inlineStr"/>
       <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1266">
@@ -41287,10 +41283,8 @@
       </c>
       <c r="F1266" t="inlineStr"/>
       <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1267">
@@ -41321,10 +41315,8 @@
           <t>$9.5B</t>
         </is>
       </c>
-      <c r="H1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
@@ -41355,10 +41347,8 @@
           <t>$ 10B</t>
         </is>
       </c>
-      <c r="H1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1269">
@@ -41385,10 +41375,8 @@
       </c>
       <c r="F1269" t="inlineStr"/>
       <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
@@ -41415,10 +41403,8 @@
       </c>
       <c r="F1270" t="inlineStr"/>
       <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1271">
@@ -41445,10 +41431,8 @@
       </c>
       <c r="F1271" t="inlineStr"/>
       <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1272">
@@ -41471,10 +41455,8 @@
       <c r="E1272" t="inlineStr"/>
       <c r="F1272" t="inlineStr"/>
       <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1273">
@@ -41505,10 +41487,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1274">
@@ -41539,10 +41519,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1275">
@@ -41577,10 +41555,8 @@
           <t>$ 1463M</t>
         </is>
       </c>
-      <c r="H1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1276">
@@ -41611,10 +41587,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1277">
@@ -41645,10 +41619,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1278">
@@ -41675,10 +41647,8 @@
       </c>
       <c r="F1278" t="inlineStr"/>
       <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1279">
@@ -41701,10 +41671,8 @@
       </c>
       <c r="F1279" t="inlineStr"/>
       <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1280">
@@ -41731,10 +41699,8 @@
           <t>80</t>
         </is>
       </c>
-      <c r="H1280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1281">
@@ -41753,10 +41719,8 @@
       <c r="E1281" t="inlineStr"/>
       <c r="F1281" t="inlineStr"/>
       <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1282">
@@ -41783,10 +41747,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H1282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1283">
@@ -41813,10 +41775,8 @@
           <t>TRY 9.0T</t>
         </is>
       </c>
-      <c r="H1283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1284">
@@ -41835,10 +41795,8 @@
       <c r="E1284" t="inlineStr"/>
       <c r="F1284" t="inlineStr"/>
       <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1285">
@@ -41857,10 +41815,8 @@
       <c r="E1285" t="inlineStr"/>
       <c r="F1285" t="inlineStr"/>
       <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1286">
@@ -41901,10 +41857,8 @@
       </c>
       <c r="F1287" t="inlineStr"/>
       <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1288">
@@ -41931,10 +41885,8 @@
       </c>
       <c r="F1288" t="inlineStr"/>
       <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -41965,10 +41917,8 @@
           <t>-2.2%</t>
         </is>
       </c>
-      <c r="H1289" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1289" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1290">
@@ -42003,10 +41953,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1290" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1290" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1291">
@@ -42041,10 +41989,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H1291" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1291" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1292">
@@ -42075,10 +42021,8 @@
           <t>40.0K</t>
         </is>
       </c>
-      <c r="H1292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1292" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1293">
@@ -42113,10 +42057,8 @@
           <t>5.4%</t>
         </is>
       </c>
-      <c r="H1293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1294">
@@ -42151,10 +42093,8 @@
           <t>15.0K</t>
         </is>
       </c>
-      <c r="H1294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1295">
@@ -42185,10 +42125,8 @@
           <t>-20.0K</t>
         </is>
       </c>
-      <c r="H1295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1296">
@@ -42219,10 +42157,8 @@
           <t>-3.0%</t>
         </is>
       </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1297">
@@ -42253,10 +42189,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1298">
@@ -42287,10 +42221,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1299">
@@ -42325,10 +42257,8 @@
           <t>16</t>
         </is>
       </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1300">
@@ -42363,10 +42293,8 @@
           <t>14</t>
         </is>
       </c>
-      <c r="H1300" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1300" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1301">
@@ -42401,10 +42329,8 @@
           <t>-94</t>
         </is>
       </c>
-      <c r="H1301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1302">
@@ -42431,10 +42357,8 @@
       </c>
       <c r="F1302" t="inlineStr"/>
       <c r="G1302" t="inlineStr"/>
-      <c r="H1302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1303">
@@ -42461,10 +42385,8 @@
       </c>
       <c r="F1303" t="inlineStr"/>
       <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1304">
@@ -42495,10 +42417,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1305">
@@ -42529,10 +42449,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1306">
@@ -42567,10 +42485,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H1306" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1306" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1307">
@@ -42601,10 +42517,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1308">
@@ -42639,10 +42553,8 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="H1308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1309">
@@ -42673,10 +42585,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1310">
@@ -42711,10 +42621,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1311">
@@ -42749,10 +42657,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H1311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1312">
@@ -42779,10 +42685,8 @@
       </c>
       <c r="F1312" t="inlineStr"/>
       <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1313">
@@ -42809,10 +42713,8 @@
       </c>
       <c r="F1313" t="inlineStr"/>
       <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1314">
@@ -42839,10 +42741,8 @@
       </c>
       <c r="F1314" t="inlineStr"/>
       <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1315">
@@ -42869,10 +42769,8 @@
       </c>
       <c r="F1315" t="inlineStr"/>
       <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1316">
@@ -42903,10 +42801,8 @@
           <t>90</t>
         </is>
       </c>
-      <c r="H1316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1317">
@@ -42937,10 +42833,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1318">
@@ -42989,10 +42883,8 @@
           <t>£ -11.3B</t>
         </is>
       </c>
-      <c r="H1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -43023,10 +42915,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1321">
@@ -43057,10 +42947,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1321" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1322">
@@ -43091,10 +42979,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1323">
@@ -43125,10 +43011,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1324">
@@ -43155,10 +43039,8 @@
       </c>
       <c r="F1324" t="inlineStr"/>
       <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1325">
@@ -43189,10 +43071,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1326">
@@ -43223,10 +43103,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -43253,10 +43131,8 @@
       </c>
       <c r="F1327" t="inlineStr"/>
       <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -43283,10 +43159,8 @@
       </c>
       <c r="F1328" t="inlineStr"/>
       <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -43313,10 +43187,8 @@
       </c>
       <c r="F1329" t="inlineStr"/>
       <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -43343,10 +43215,8 @@
       </c>
       <c r="F1330" t="inlineStr"/>
       <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1330" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1331">
@@ -43373,10 +43243,8 @@
       </c>
       <c r="F1331" t="inlineStr"/>
       <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -43403,10 +43271,8 @@
       </c>
       <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -43433,10 +43299,8 @@
       </c>
       <c r="F1333" t="inlineStr"/>
       <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -43463,10 +43327,8 @@
       </c>
       <c r="F1334" t="inlineStr"/>
       <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1335">
@@ -43501,10 +43363,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1336">
@@ -43535,10 +43395,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1337">
@@ -43573,10 +43431,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1338">
@@ -43607,10 +43463,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1339">
@@ -43637,10 +43491,8 @@
       </c>
       <c r="F1339" t="inlineStr"/>
       <c r="G1339" t="inlineStr"/>
-      <c r="H1339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1340">
@@ -43675,10 +43527,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1341">
@@ -43701,10 +43551,8 @@
       <c r="E1341" t="inlineStr"/>
       <c r="F1341" t="inlineStr"/>
       <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1341" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1342">
@@ -43731,10 +43579,8 @@
       </c>
       <c r="F1342" t="inlineStr"/>
       <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1343">
@@ -43761,10 +43607,8 @@
       </c>
       <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1344">
@@ -43795,10 +43639,8 @@
           <t>115.0%</t>
         </is>
       </c>
-      <c r="H1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1345">
@@ -43829,10 +43671,8 @@
           <t>60</t>
         </is>
       </c>
-      <c r="H1345" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -43859,10 +43699,8 @@
       </c>
       <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1347">
@@ -43897,10 +43735,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1347" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1347" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1348">
@@ -43935,10 +43771,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1349">
@@ -43973,10 +43807,8 @@
           <t>¥ 100B</t>
         </is>
       </c>
-      <c r="H1349" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1349" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1350">
@@ -44011,10 +43843,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1351">
@@ -44041,10 +43871,8 @@
       </c>
       <c r="F1351" t="inlineStr"/>
       <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1352">
@@ -44079,10 +43907,8 @@
           <t>-3.8%</t>
         </is>
       </c>
-      <c r="H1352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1353">
@@ -44109,10 +43935,8 @@
       </c>
       <c r="F1353" t="inlineStr"/>
       <c r="G1353" t="inlineStr"/>
-      <c r="H1353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1354">
@@ -44139,10 +43963,8 @@
       </c>
       <c r="F1354" t="inlineStr"/>
       <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1355">
@@ -44169,10 +43991,8 @@
       </c>
       <c r="F1355" t="inlineStr"/>
       <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1356">
@@ -44213,10 +44033,8 @@
       </c>
       <c r="F1357" t="inlineStr"/>
       <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1358">
@@ -44247,10 +44065,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H1358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1359">
@@ -44281,10 +44097,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1360">
@@ -44315,10 +44129,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1361">
@@ -44349,10 +44161,8 @@
           <t>SAR21.8B</t>
         </is>
       </c>
-      <c r="H1361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1362">
@@ -44379,10 +44189,8 @@
       </c>
       <c r="F1362" t="inlineStr"/>
       <c r="G1362" t="inlineStr"/>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1363">
@@ -44409,10 +44217,8 @@
       </c>
       <c r="F1363" t="inlineStr"/>
       <c r="G1363" t="inlineStr"/>
-      <c r="H1363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1364">
@@ -44443,10 +44249,8 @@
           <t>81.5</t>
         </is>
       </c>
-      <c r="H1364" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1365">
@@ -44481,10 +44285,8 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H1365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1366">
@@ -44515,10 +44317,8 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H1366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1367">
@@ -44545,10 +44345,8 @@
       </c>
       <c r="F1367" t="inlineStr"/>
       <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1368">
@@ -44575,10 +44373,8 @@
       </c>
       <c r="F1368" t="inlineStr"/>
       <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
@@ -44605,10 +44401,8 @@
       </c>
       <c r="F1369" t="inlineStr"/>
       <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1370">
@@ -44635,10 +44429,8 @@
       </c>
       <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1371">
@@ -44665,10 +44457,8 @@
       </c>
       <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1372">
@@ -44695,10 +44485,8 @@
       </c>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1373">
@@ -44725,10 +44513,8 @@
       </c>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
@@ -44755,10 +44541,8 @@
       </c>
       <c r="F1374" t="inlineStr"/>
       <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1375">
@@ -44789,10 +44573,8 @@
           <t>23.0%</t>
         </is>
       </c>
-      <c r="H1375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1376">
@@ -44823,10 +44605,8 @@
           <t>43.5%</t>
         </is>
       </c>
-      <c r="H1376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1376" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1377">
@@ -44861,10 +44641,8 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="H1377" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1377" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1378">
@@ -44895,10 +44673,8 @@
           <t>46.5%</t>
         </is>
       </c>
-      <c r="H1378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1379">
@@ -44929,10 +44705,8 @@
           <t>-30</t>
         </is>
       </c>
-      <c r="H1379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1380">
@@ -44967,10 +44741,8 @@
           <t>-25</t>
         </is>
       </c>
-      <c r="H1380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1381">
@@ -44997,10 +44769,8 @@
       </c>
       <c r="F1381" t="inlineStr"/>
       <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
@@ -45031,10 +44801,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1383">
@@ -45065,10 +44833,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1384">
@@ -45099,10 +44865,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1385">
@@ -45133,10 +44897,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1386">
@@ -45171,10 +44933,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1386" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1387">
@@ -45209,10 +44969,8 @@
           <t>0.0%</t>
         </is>
       </c>
-      <c r="H1387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1388">
@@ -45235,10 +44993,8 @@
       <c r="E1388" t="inlineStr"/>
       <c r="F1388" t="inlineStr"/>
       <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1389">
@@ -45269,10 +45025,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1390">
@@ -45307,10 +45061,8 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="H1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1391">
@@ -45341,10 +45093,8 @@
           <t>1861K</t>
         </is>
       </c>
-      <c r="H1391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1392">
@@ -45375,10 +45125,8 @@
           <t>213.0K</t>
         </is>
       </c>
-      <c r="H1392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1393">
@@ -45413,10 +45161,8 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="H1393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1394">
@@ -45443,10 +45189,8 @@
       </c>
       <c r="F1394" t="inlineStr"/>
       <c r="G1394" t="inlineStr"/>
-      <c r="H1394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1395">
@@ -45473,10 +45217,8 @@
       </c>
       <c r="F1395" t="inlineStr"/>
       <c r="G1395" t="inlineStr"/>
-      <c r="H1395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1395" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1396">
@@ -45503,10 +45245,8 @@
       </c>
       <c r="F1396" t="inlineStr"/>
       <c r="G1396" t="inlineStr"/>
-      <c r="H1396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1397">
@@ -45533,10 +45273,8 @@
       </c>
       <c r="F1397" t="inlineStr"/>
       <c r="G1397" t="inlineStr"/>
-      <c r="H1397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1398">
@@ -45563,10 +45301,8 @@
       </c>
       <c r="F1398" t="inlineStr"/>
       <c r="G1398" t="inlineStr"/>
-      <c r="H1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1399">
@@ -45593,10 +45329,8 @@
       </c>
       <c r="F1399" t="inlineStr"/>
       <c r="G1399" t="inlineStr"/>
-      <c r="H1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -45623,10 +45357,8 @@
       </c>
       <c r="F1400" t="inlineStr"/>
       <c r="G1400" t="inlineStr"/>
-      <c r="H1400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1401">
@@ -45653,10 +45385,8 @@
       </c>
       <c r="F1401" t="inlineStr"/>
       <c r="G1401" t="inlineStr"/>
-      <c r="H1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1402">
@@ -45683,10 +45413,8 @@
       </c>
       <c r="F1402" t="inlineStr"/>
       <c r="G1402" t="inlineStr"/>
-      <c r="H1402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1403">
@@ -45713,10 +45441,8 @@
       </c>
       <c r="F1403" t="inlineStr"/>
       <c r="G1403" t="inlineStr"/>
-      <c r="H1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1404">
@@ -45743,10 +45469,8 @@
       </c>
       <c r="F1404" t="inlineStr"/>
       <c r="G1404" t="inlineStr"/>
-      <c r="H1404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1405">
@@ -45773,10 +45497,8 @@
       </c>
       <c r="F1405" t="inlineStr"/>
       <c r="G1405" t="inlineStr"/>
-      <c r="H1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1406">
@@ -45803,10 +45525,8 @@
       </c>
       <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
-      <c r="H1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1407">
@@ -45833,10 +45553,8 @@
       </c>
       <c r="F1407" t="inlineStr"/>
       <c r="G1407" t="inlineStr"/>
-      <c r="H1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1408">
@@ -45863,10 +45581,8 @@
       </c>
       <c r="F1408" t="inlineStr"/>
       <c r="G1408" t="inlineStr"/>
-      <c r="H1408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -45893,10 +45609,8 @@
       </c>
       <c r="F1409" t="inlineStr"/>
       <c r="G1409" t="inlineStr"/>
-      <c r="H1409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1410">
@@ -45927,10 +45641,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1411">
@@ -45957,10 +45669,8 @@
       </c>
       <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr"/>
-      <c r="H1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -45991,10 +45701,8 @@
           <t>48.3</t>
         </is>
       </c>
-      <c r="H1412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1413">
@@ -46025,10 +45733,8 @@
           <t>50.6</t>
         </is>
       </c>
-      <c r="H1413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1414">
@@ -46059,10 +45765,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1415">
@@ -46093,10 +45797,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1415" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1415" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1416">
@@ -46131,10 +45833,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1417">
@@ -46165,10 +45865,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1418">
@@ -46199,10 +45897,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1419">
@@ -46237,10 +45933,8 @@
           <t>-23</t>
         </is>
       </c>
-      <c r="H1419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1420">
@@ -46275,10 +45969,8 @@
           <t>49.9</t>
         </is>
       </c>
-      <c r="H1420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1421">
@@ -46309,10 +46001,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H1421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1422">
@@ -46343,10 +46033,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1423">
@@ -46377,10 +46065,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1424">
@@ -46415,10 +46101,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1424" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1424" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1425">
@@ -46441,10 +46125,8 @@
       <c r="E1425" t="inlineStr"/>
       <c r="F1425" t="inlineStr"/>
       <c r="G1425" t="inlineStr"/>
-      <c r="H1425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1425" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1426">
@@ -46471,10 +46153,8 @@
       </c>
       <c r="F1426" t="inlineStr"/>
       <c r="G1426" t="inlineStr"/>
-      <c r="H1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1427">
@@ -46497,10 +46177,8 @@
       </c>
       <c r="F1427" t="inlineStr"/>
       <c r="G1427" t="inlineStr"/>
-      <c r="H1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1428">
@@ -46527,222 +46205,240 @@
           <t>BRL 255.1B</t>
         </is>
       </c>
-      <c r="H1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr"/>
-      <c r="C1429" t="inlineStr"/>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>Foreign Exchange ReservesJAN/17</t>
+        </is>
+      </c>
       <c r="D1429" t="inlineStr"/>
-      <c r="E1429" t="inlineStr"/>
+      <c r="E1429" t="inlineStr">
+        <is>
+          <t>$625.87B</t>
+        </is>
+      </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr"/>
+      <c r="H1429" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FlashJAN</t>
+          <t>CFIB Business BarometerJAN</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr"/>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>59.2</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="F1430" t="inlineStr"/>
       <c r="G1430" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>56.2</t>
         </is>
       </c>
       <c r="H1430" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FlashJAN</t>
+          <t>Economic Activity MoMNOV</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr"/>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F1431" t="inlineStr"/>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>56.1</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FlashJAN</t>
+          <t>Economic Activity YoYNOV</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr"/>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr"/>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>New Housing Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr"/>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F1433" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1433" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>New Housing Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr"/>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>8.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr"/>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Manufacturing Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr"/>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr"/>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
@@ -46754,33 +46450,29 @@
     <row r="1436">
       <c r="A1436" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr"/>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F1436" t="inlineStr">
-        <is>
-          <t>42.1</t>
-        </is>
-      </c>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F1436" t="inlineStr"/>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>42.2</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
@@ -46792,33 +46484,29 @@
     <row r="1437">
       <c r="A1437" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr"/>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F1437" t="inlineStr">
-        <is>
           <t>49.4</t>
         </is>
       </c>
+      <c r="F1437" t="inlineStr"/>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
@@ -46830,67 +46518,67 @@
     <row r="1438">
       <c r="A1438" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr"/>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr"/>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr"/>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -46902,29 +46590,29 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr"/>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="F1440" t="inlineStr"/>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -46936,33 +46624,33 @@
     <row r="1441">
       <c r="A1441" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr"/>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -46974,215 +46662,215 @@
     <row r="1442">
       <c r="A1442" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FlashJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr"/>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F1442" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F1442" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FlashJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr"/>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>45.3</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FlashJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr"/>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr"/>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr"/>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F1446" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="F1446" t="inlineStr"/>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr"/>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr"/>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
@@ -47194,57 +46882,57 @@
     <row r="1448">
       <c r="A1448" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>ECB President Lagarde Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr"/>
-      <c r="E1448" t="inlineStr"/>
+      <c r="E1448" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>FGV Consumer ConfidenceJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr"/>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr"/>
-      <c r="G1449" t="inlineStr">
-        <is>
-          <t>91.4</t>
-        </is>
-      </c>
+      <c r="G1449" t="inlineStr"/>
       <c r="H1449" t="inlineStr">
         <is>
           <t>3</t>
@@ -47254,125 +46942,89 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1450" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C1450" t="inlineStr">
-        <is>
-          <t>ECB Cipollone Speech</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B1450" t="inlineStr"/>
+      <c r="C1450" t="inlineStr"/>
       <c r="D1450" t="inlineStr"/>
       <c r="E1450" t="inlineStr"/>
       <c r="F1450" t="inlineStr"/>
       <c r="G1450" t="inlineStr"/>
-      <c r="H1450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1450" t="inlineStr"/>
     </row>
     <row r="1451">
       <c r="A1451" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>CBI Distributive TradesJAN</t>
+          <t>Industrial Profits (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr"/>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F1451" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1451" t="inlineStr"/>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C1452" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/17</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr"/>
+      <c r="C1452" t="inlineStr"/>
       <c r="D1452" t="inlineStr"/>
-      <c r="E1452" t="inlineStr">
-        <is>
-          <t>$625.87B</t>
-        </is>
-      </c>
+      <c r="E1452" t="inlineStr"/>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H1452" t="inlineStr"/>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>CFIB Business BarometerJAN</t>
+          <t>Coincident Index FinalNOV</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>116.8</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr"/>
-      <c r="G1453" t="inlineStr">
-        <is>
-          <t>56.2</t>
-        </is>
-      </c>
+      <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
           <t>3</t>
@@ -47382,31 +47034,27 @@
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Economic Activity MoMNOV</t>
+          <t>Leading Economic Index FinalNOV</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>109.1</t>
         </is>
       </c>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1454" t="inlineStr"/>
       <c r="H1454" t="inlineStr">
         <is>
           <t>3</t>
@@ -47416,31 +47064,27 @@
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Economic Activity YoYNOV</t>
+          <t>2-Year Bond Yield</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
-      <c r="G1455" t="inlineStr">
-        <is>
-          <t>1.0%</t>
-        </is>
-      </c>
+      <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
           <t>3</t>
@@ -47450,313 +47094,257 @@
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>New Housing Price Index MoMDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
-      <c r="E1456" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1456" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1456" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1456" t="inlineStr"/>
+      <c r="F1456" t="inlineStr"/>
+      <c r="G1456" t="inlineStr"/>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>New Housing Price Index YoYDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
-      <c r="E1457" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E1457" t="inlineStr"/>
       <c r="F1457" t="inlineStr"/>
-      <c r="G1457" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1457" t="inlineStr"/>
       <c r="H1457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM PrelDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr"/>
-      <c r="G1458" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>75.8%</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr"/>
-      <c r="G1459" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Ifo Business ClimateJAN</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>84.7</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="G1460" t="inlineStr"/>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Ifo Current ConditionsJAN</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>85.1</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="G1461" t="inlineStr"/>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>Ifo ExpectationsJAN</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="F1462" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G1462" t="inlineStr">
-        <is>
-          <t>4.1M</t>
-        </is>
-      </c>
+          <t>84.4</t>
+        </is>
+      </c>
+      <c r="F1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr"/>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:45 AM</t>
         </is>
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>EU Bond Auction</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="E1463" t="inlineStr"/>
       <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G1463" t="inlineStr"/>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Unemployment Benefit ClaimsDEC</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr"/>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F1464" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>43.5K</t>
+        </is>
+      </c>
+      <c r="F1464" t="inlineStr"/>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H1464" t="inlineStr">
@@ -47768,33 +47356,29 @@
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Jobseekers TotalDEC</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F1465" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>2935K</t>
+        </is>
+      </c>
+      <c r="F1465" t="inlineStr"/>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2875K</t>
         </is>
       </c>
       <c r="H1465" t="inlineStr">
@@ -47806,33 +47390,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Bank Lending MoMDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="F1466" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47844,35 +47424,27 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>IPCA mid-month CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="F1467" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G1467" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr"/>
       <c r="H1467" t="inlineStr">
         <is>
           <t>3</t>
@@ -47882,35 +47454,27 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>IPCA mid-month CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1468" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1468" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="F1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr"/>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47920,63 +47484,63 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>$-0.133B</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>$ 3.9B</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Wholesale Sales MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -47988,7 +47552,7 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
@@ -47998,47 +47562,55 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
-      <c r="G1471" t="inlineStr"/>
+      <c r="G1471" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
       <c r="H1471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr"/>
+      <c r="G1472" t="inlineStr">
+        <is>
+          <t>46.2</t>
+        </is>
+      </c>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -48048,45 +47620,49 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B1473" t="inlineStr"/>
-      <c r="C1473" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1473" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>12-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1473" t="inlineStr"/>
       <c r="E1473" t="inlineStr"/>
       <c r="F1473" t="inlineStr"/>
       <c r="G1473" t="inlineStr"/>
-      <c r="H1473" t="inlineStr"/>
+      <c r="H1473" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Industrial Profits (YTD) YoYDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
-      <c r="E1474" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="E1474" t="inlineStr"/>
       <c r="F1474" t="inlineStr"/>
-      <c r="G1474" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="G1474" t="inlineStr"/>
       <c r="H1474" t="inlineStr">
         <is>
           <t>3</t>
@@ -48096,121 +47672,129 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1475" t="inlineStr"/>
-      <c r="C1475" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1475" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1475" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1475" t="inlineStr"/>
       <c r="E1475" t="inlineStr"/>
       <c r="F1475" t="inlineStr"/>
       <c r="G1475" t="inlineStr"/>
-      <c r="H1475" t="inlineStr"/>
+      <c r="H1475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1476" t="inlineStr"/>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1477" t="inlineStr"/>
       <c r="F1477" t="inlineStr"/>
-      <c r="G1477" t="inlineStr"/>
+      <c r="G1477" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
       <c r="G1478" t="inlineStr"/>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
@@ -48226,17 +47810,17 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
@@ -48252,55 +47836,47 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
-      <c r="E1481" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1481" t="inlineStr"/>
       <c r="F1481" t="inlineStr"/>
       <c r="G1481" t="inlineStr"/>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1482" t="inlineStr"/>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
@@ -48312,27 +47888,31 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr"/>
+      <c r="G1483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1483" t="inlineStr">
         <is>
           <t>1</t>
@@ -48342,27 +47922,31 @@
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr"/>
+      <c r="G1484" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1484" t="inlineStr">
         <is>
           <t>3</t>
@@ -48370,29 +47954,29 @@
       </c>
     </row>
     <row r="1485">
-      <c r="A1485" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1485" t="inlineStr"/>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr"/>
+      <c r="G1485" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -48400,25 +47984,33 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1486" t="inlineStr"/>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
-      <c r="E1486" t="inlineStr"/>
-      <c r="F1486" t="inlineStr"/>
-      <c r="G1486" t="inlineStr"/>
+      <c r="E1486" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1486" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1486" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48428,65 +48020,41 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1487" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr"/>
+      <c r="C1487" t="inlineStr"/>
       <c r="D1487" t="inlineStr"/>
-      <c r="E1487" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
-      <c r="G1487" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1487" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1487" t="inlineStr"/>
+      <c r="H1487" t="inlineStr"/>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr"/>
-      <c r="G1488" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1488" t="inlineStr"/>
       <c r="H1488" t="inlineStr">
         <is>
           <t>3</t>
@@ -48496,29 +48064,29 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
@@ -48530,27 +48098,31 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
-      <c r="G1490" t="inlineStr"/>
+      <c r="G1490" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1490" t="inlineStr">
         <is>
           <t>3</t>
@@ -48560,27 +48132,31 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr"/>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -48590,97 +48166,93 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr"/>
-      <c r="G1493" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1494" t="inlineStr">
@@ -48692,31 +48264,27 @@
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
-      <c r="G1495" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1495" t="inlineStr"/>
       <c r="H1495" t="inlineStr">
         <is>
           <t>3</t>
@@ -48726,17 +48294,17 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
@@ -48752,17 +48320,17 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
@@ -48778,17 +48346,17 @@
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
@@ -48804,33 +48372,37 @@
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
-      <c r="E1499" t="inlineStr"/>
+      <c r="E1499" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1499" t="inlineStr"/>
       <c r="G1499" t="inlineStr"/>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
@@ -48840,27 +48412,31 @@
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
-      <c r="E1500" t="inlineStr"/>
+      <c r="E1500" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
@@ -48870,17 +48446,21 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
-      <c r="G1501" t="inlineStr"/>
+      <c r="G1501" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1501" t="inlineStr">
         <is>
           <t>2</t>
@@ -48890,7 +48470,7 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
@@ -48900,13 +48480,21 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr"/>
+      <c r="E1502" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1502" t="inlineStr"/>
-      <c r="G1502" t="inlineStr"/>
+      <c r="G1502" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1502" t="inlineStr">
         <is>
           <t>3</t>
@@ -48916,7 +48504,7 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
@@ -48926,11 +48514,15 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
-      <c r="E1503" t="inlineStr"/>
+      <c r="E1503" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1503" t="inlineStr"/>
       <c r="G1503" t="inlineStr"/>
       <c r="H1503" t="inlineStr">
@@ -48942,7 +48534,7 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
@@ -48952,7 +48544,7 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
@@ -48968,7 +48560,7 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
@@ -48978,81 +48570,73 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr"/>
+      <c r="E1505" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1505" t="inlineStr"/>
       <c r="G1505" t="inlineStr"/>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr"/>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr">
+      <c r="G1506" t="inlineStr"/>
+      <c r="H1506" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1507" t="inlineStr"/>
       <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1507" t="inlineStr"/>
       <c r="H1507" t="inlineStr">
         <is>
           <t>3</t>
@@ -49060,7 +48644,11 @@
       </c>
     </row>
     <row r="1508">
-      <c r="A1508" t="inlineStr"/>
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1508" t="inlineStr">
         <is>
           <t>US</t>
@@ -49068,21 +48656,17 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr"/>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1508" t="inlineStr"/>
       <c r="H1508" t="inlineStr">
         <is>
           <t>3</t>
@@ -49090,7 +48674,11 @@
       </c>
     </row>
     <row r="1509">
-      <c r="A1509" t="inlineStr"/>
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1509" t="inlineStr">
         <is>
           <t>US</t>
@@ -49098,25 +48686,17 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr"/>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1509" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1509" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="inlineStr"/>
       <c r="H1509" t="inlineStr">
         <is>
           <t>3</t>
@@ -49126,39 +48706,47 @@
     <row r="1510">
       <c r="A1510" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr"/>
-      <c r="C1510" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1510" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1510" t="inlineStr"/>
       <c r="E1510" t="inlineStr"/>
       <c r="F1510" t="inlineStr"/>
       <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr"/>
+      <c r="H1510" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1511" t="inlineStr"/>
       <c r="F1511" t="inlineStr"/>
       <c r="G1511" t="inlineStr"/>
       <c r="H1511" t="inlineStr">
@@ -49170,29 +48758,29 @@
     <row r="1512">
       <c r="A1512" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr"/>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1512" t="inlineStr">
@@ -49204,29 +48792,29 @@
     <row r="1513">
       <c r="A1513" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr"/>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
@@ -49238,31 +48826,27 @@
     <row r="1514">
       <c r="A1514" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr"/>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1514" t="inlineStr"/>
       <c r="H1514" t="inlineStr">
         <is>
           <t>3</t>
@@ -49272,31 +48856,27 @@
     <row r="1515">
       <c r="A1515" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr"/>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1515" t="inlineStr"/>
       <c r="H1515" t="inlineStr">
         <is>
           <t>3</t>
@@ -49306,87 +48886,79 @@
     <row r="1516">
       <c r="A1516" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1516" t="inlineStr"/>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr"/>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1517" t="inlineStr"/>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1518">
       <c r="A1518" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr"/>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr"/>
@@ -49400,17 +48972,17 @@
     <row r="1519">
       <c r="A1519" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr"/>
@@ -49419,152 +48991,172 @@
       <c r="G1519" t="inlineStr"/>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr"/>
+      <c r="E1520" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr"/>
+      <c r="G1520" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1521">
       <c r="A1521" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr"/>
+      <c r="E1521" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr"/>
+      <c r="G1521" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr"/>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr"/>
+      <c r="G1522" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr"/>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1524">
       <c r="A1524" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr"/>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1524" t="inlineStr">
@@ -49576,29 +49168,25 @@
     <row r="1525">
       <c r="A1525" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1525" t="inlineStr"/>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1525" t="inlineStr">
@@ -49610,23 +49198,23 @@
     <row r="1526">
       <c r="A1526" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr"/>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1526" t="inlineStr"/>
@@ -49640,722 +49228,28 @@
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr"/>
+      <c r="E1527" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1527" t="inlineStr"/>
       <c r="G1527" t="inlineStr"/>
       <c r="H1527" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1528" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1528" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1528" t="inlineStr"/>
-      <c r="E1528" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1528" t="inlineStr"/>
-      <c r="G1528" t="inlineStr"/>
-      <c r="H1528" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1529" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1529" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1529" t="inlineStr"/>
-      <c r="E1529" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1529" t="inlineStr"/>
-      <c r="G1529" t="inlineStr"/>
-      <c r="H1529" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1530">
-      <c r="A1530" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1530" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1530" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1530" t="inlineStr"/>
-      <c r="E1530" t="inlineStr"/>
-      <c r="F1530" t="inlineStr"/>
-      <c r="G1530" t="inlineStr"/>
-      <c r="H1530" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1531">
-      <c r="A1531" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1531" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1531" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1531" t="inlineStr"/>
-      <c r="E1531" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1531" t="inlineStr"/>
-      <c r="G1531" t="inlineStr"/>
-      <c r="H1531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1532">
-      <c r="A1532" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1532" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1532" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1532" t="inlineStr"/>
-      <c r="E1532" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1532" t="inlineStr"/>
-      <c r="G1532" t="inlineStr"/>
-      <c r="H1532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1533">
-      <c r="A1533" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1533" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1533" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1533" t="inlineStr"/>
-      <c r="E1533" t="inlineStr"/>
-      <c r="F1533" t="inlineStr"/>
-      <c r="G1533" t="inlineStr"/>
-      <c r="H1533" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1534">
-      <c r="A1534" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1534" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1534" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1534" t="inlineStr"/>
-      <c r="E1534" t="inlineStr"/>
-      <c r="F1534" t="inlineStr"/>
-      <c r="G1534" t="inlineStr"/>
-      <c r="H1534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1535">
-      <c r="A1535" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1535" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1535" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1535" t="inlineStr"/>
-      <c r="E1535" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1535" t="inlineStr"/>
-      <c r="G1535" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1536">
-      <c r="A1536" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1536" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1536" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1536" t="inlineStr"/>
-      <c r="E1536" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1536" t="inlineStr"/>
-      <c r="G1536" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1537">
-      <c r="A1537" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1537" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1537" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1537" t="inlineStr"/>
-      <c r="E1537" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1537" t="inlineStr"/>
-      <c r="G1537" t="inlineStr"/>
-      <c r="H1537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1538">
-      <c r="A1538" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1538" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1538" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1538" t="inlineStr"/>
-      <c r="E1538" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1538" t="inlineStr"/>
-      <c r="G1538" t="inlineStr"/>
-      <c r="H1538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1539">
-      <c r="A1539" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1539" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1539" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="D1539" t="inlineStr"/>
-      <c r="E1539" t="inlineStr"/>
-      <c r="F1539" t="inlineStr"/>
-      <c r="G1539" t="inlineStr"/>
-      <c r="H1539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1540">
-      <c r="A1540" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1540" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1540" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1540" t="inlineStr"/>
-      <c r="E1540" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1540" t="inlineStr"/>
-      <c r="G1540" t="inlineStr"/>
-      <c r="H1540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1541">
-      <c r="A1541" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1541" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1541" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1541" t="inlineStr"/>
-      <c r="E1541" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1541" t="inlineStr"/>
-      <c r="G1541" t="inlineStr"/>
-      <c r="H1541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1542">
-      <c r="A1542" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1542" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1542" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1542" t="inlineStr"/>
-      <c r="E1542" t="inlineStr"/>
-      <c r="F1542" t="inlineStr"/>
-      <c r="G1542" t="inlineStr"/>
-      <c r="H1542" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1543">
-      <c r="A1543" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1543" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1543" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1543" t="inlineStr"/>
-      <c r="E1543" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1543" t="inlineStr"/>
-      <c r="G1543" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H1543" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1544">
-      <c r="A1544" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1544" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1544" t="inlineStr">
-        <is>
-          <t>Inflation Rate QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1544" t="inlineStr"/>
-      <c r="E1544" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1544" t="inlineStr"/>
-      <c r="G1544" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1544" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1545">
-      <c r="A1545" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1545" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1545" t="inlineStr">
-        <is>
-          <t>Monthly CPI IndicatorDEC</t>
-        </is>
-      </c>
-      <c r="D1545" t="inlineStr"/>
-      <c r="E1545" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F1545" t="inlineStr"/>
-      <c r="G1545" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1545" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1546">
-      <c r="A1546" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1546" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1546" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1546" t="inlineStr"/>
-      <c r="E1546" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1546" t="inlineStr"/>
-      <c r="G1546" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H1546" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1547">
-      <c r="A1547" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1547" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1547" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1547" t="inlineStr"/>
-      <c r="E1547" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F1547" t="inlineStr"/>
-      <c r="G1547" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H1547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1548">
-      <c r="A1548" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1548" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1548" t="inlineStr">
-        <is>
-          <t>CPIQ4</t>
-        </is>
-      </c>
-      <c r="D1548" t="inlineStr"/>
-      <c r="E1548" t="inlineStr"/>
-      <c r="F1548" t="inlineStr"/>
-      <c r="G1548" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
-      <c r="H1548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1549">
-      <c r="A1549" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1549" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1549" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1549" t="inlineStr"/>
-      <c r="E1549" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1549" t="inlineStr"/>
-      <c r="G1549" t="inlineStr"/>
-      <c r="H1549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1550">
-      <c r="A1550" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1550" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1550" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1550" t="inlineStr"/>
-      <c r="E1550" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1550" t="inlineStr"/>
-      <c r="G1550" t="inlineStr"/>
-      <c r="H1550" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1527"/>
+  <dimension ref="A1:H1504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46233,10 +46233,8 @@
       </c>
       <c r="F1429" t="inlineStr"/>
       <c r="G1429" t="inlineStr"/>
-      <c r="H1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1430">
@@ -46267,10 +46265,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1431">
@@ -46301,10 +46297,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1432">
@@ -46335,10 +46329,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1433">
@@ -46373,10 +46365,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1434">
@@ -46407,10 +46397,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1434" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1434" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1435">
@@ -46441,10 +46429,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1436">
@@ -46475,10 +46461,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1436" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1436" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1437">
@@ -46509,10 +46493,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1437" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1437" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1438">
@@ -46543,10 +46525,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1438" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1438" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1439">
@@ -46581,10 +46561,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1439" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1439" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1440">
@@ -46615,10 +46593,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1440" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1440" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1441">
@@ -46653,10 +46629,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1441" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1441" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1442">
@@ -46691,10 +46665,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1443">
@@ -46729,10 +46701,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1444">
@@ -46767,10 +46737,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -46805,10 +46773,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1446">
@@ -46839,10 +46805,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1447">
@@ -46873,10 +46837,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1448">
@@ -46903,10 +46865,8 @@
       </c>
       <c r="F1448" t="inlineStr"/>
       <c r="G1448" t="inlineStr"/>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1449">
@@ -46933,10 +46893,8 @@
       </c>
       <c r="F1449" t="inlineStr"/>
       <c r="G1449" t="inlineStr"/>
-      <c r="H1449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1450">
@@ -46981,130 +46939,136 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B1452" t="inlineStr"/>
-      <c r="C1452" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>6-Month BTF Auction</t>
+        </is>
+      </c>
       <c r="D1452" t="inlineStr"/>
       <c r="E1452" t="inlineStr"/>
       <c r="F1452" t="inlineStr"/>
       <c r="G1452" t="inlineStr"/>
-      <c r="H1452" t="inlineStr"/>
+      <c r="H1452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>Coincident Index FinalNOV</t>
+          <t>New Home SalesDEC</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr"/>
-      <c r="E1453" t="inlineStr">
-        <is>
-          <t>116.8</t>
-        </is>
-      </c>
+      <c r="E1453" t="inlineStr"/>
       <c r="F1453" t="inlineStr"/>
       <c r="G1453" t="inlineStr"/>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Leading Economic Index FinalNOV</t>
+          <t>New Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr"/>
-      <c r="E1454" t="inlineStr">
-        <is>
-          <t>109.1</t>
-        </is>
-      </c>
+      <c r="E1454" t="inlineStr"/>
       <c r="F1454" t="inlineStr"/>
-      <c r="G1454" t="inlineStr"/>
+      <c r="G1454" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>2-Year Bond Yield</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr"/>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr"/>
       <c r="G1455" t="inlineStr"/>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr"/>
@@ -47120,17 +47084,17 @@
     <row r="1457">
       <c r="A1457" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr"/>
@@ -47146,55 +47110,47 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr"/>
-      <c r="E1458" t="inlineStr">
-        <is>
-          <t>99.1</t>
-        </is>
-      </c>
+      <c r="E1458" t="inlineStr"/>
       <c r="F1458" t="inlineStr"/>
       <c r="G1458" t="inlineStr"/>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr"/>
-      <c r="E1459" t="inlineStr">
-        <is>
-          <t>75.8%</t>
-        </is>
-      </c>
+      <c r="E1459" t="inlineStr"/>
       <c r="F1459" t="inlineStr"/>
       <c r="G1459" t="inlineStr"/>
       <c r="H1459" t="inlineStr">
@@ -47206,27 +47162,31 @@
     <row r="1460">
       <c r="A1460" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Ifo Business ClimateJAN</t>
+          <t>NAB Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr"/>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>84.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr"/>
-      <c r="G1460" t="inlineStr"/>
+      <c r="G1460" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="H1460" t="inlineStr">
         <is>
           <t>1</t>
@@ -47236,27 +47196,31 @@
     <row r="1461">
       <c r="A1461" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Ifo Current ConditionsJAN</t>
+          <t>Unemployment Rate PrelQ4</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr"/>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>85.1</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr"/>
-      <c r="G1461" t="inlineStr"/>
+      <c r="G1461" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
       <c r="H1461" t="inlineStr">
         <is>
           <t>3</t>
@@ -47264,29 +47228,29 @@
       </c>
     </row>
     <row r="1462">
-      <c r="A1462" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A1462" t="inlineStr"/>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Ifo ExpectationsJAN</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr"/>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>84.4</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
+      <c r="G1462" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H1462" t="inlineStr">
         <is>
           <t>3</t>
@@ -47294,25 +47258,33 @@
       </c>
     </row>
     <row r="1463">
-      <c r="A1463" t="inlineStr">
-        <is>
-          <t>05:45 AM</t>
-        </is>
-      </c>
+      <c r="A1463" t="inlineStr"/>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>EU Bond Auction</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr"/>
-      <c r="E1463" t="inlineStr"/>
-      <c r="F1463" t="inlineStr"/>
-      <c r="G1463" t="inlineStr"/>
+      <c r="E1463" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="F1463" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G1463" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="H1463" t="inlineStr">
         <is>
           <t>3</t>
@@ -47322,65 +47294,41 @@
     <row r="1464">
       <c r="A1464" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1464" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C1464" t="inlineStr">
-        <is>
-          <t>Unemployment Benefit ClaimsDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 28 2025</t>
+        </is>
+      </c>
+      <c r="B1464" t="inlineStr"/>
+      <c r="C1464" t="inlineStr"/>
       <c r="D1464" t="inlineStr"/>
-      <c r="E1464" t="inlineStr">
-        <is>
-          <t>43.5K</t>
-        </is>
-      </c>
+      <c r="E1464" t="inlineStr"/>
       <c r="F1464" t="inlineStr"/>
-      <c r="G1464" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
-      <c r="H1464" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1464" t="inlineStr"/>
+      <c r="H1464" t="inlineStr"/>
     </row>
     <row r="1465">
       <c r="A1465" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Jobseekers TotalDEC</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr"/>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>2935K</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr"/>
-      <c r="G1465" t="inlineStr">
-        <is>
-          <t>2875K</t>
-        </is>
-      </c>
+      <c r="G1465" t="inlineStr"/>
       <c r="H1465" t="inlineStr">
         <is>
           <t>3</t>
@@ -47390,29 +47338,29 @@
     <row r="1466">
       <c r="A1466" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Bank Lending MoMDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr"/>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr"/>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -47424,27 +47372,31 @@
     <row r="1467">
       <c r="A1467" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI MoMJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr"/>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr"/>
-      <c r="G1467" t="inlineStr"/>
+      <c r="G1467" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="H1467" t="inlineStr">
         <is>
           <t>3</t>
@@ -47454,27 +47406,31 @@
     <row r="1468">
       <c r="A1468" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>IPCA mid-month CPI YoYJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr"/>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>-3%</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr"/>
-      <c r="G1468" t="inlineStr"/>
+      <c r="G1468" t="inlineStr">
+        <is>
+          <t>1.6%</t>
+        </is>
+      </c>
       <c r="H1468" t="inlineStr">
         <is>
           <t>3</t>
@@ -47484,97 +47440,93 @@
     <row r="1469">
       <c r="A1469" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Leading Business Cycle Indicator MoMNOV</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr"/>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>$-0.133B</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr"/>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>$ 3.9B</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1470">
       <c r="A1470" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM PrelDEC</t>
+          <t>Consumer ConfidenceJAN</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr"/>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr"/>
-      <c r="G1470" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1470" t="inlineStr"/>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexDEC</t>
+          <t>Unemployment RateQ4</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr"/>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr"/>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
@@ -47586,31 +47538,27 @@
     <row r="1472">
       <c r="A1472" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>10-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr"/>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0.745%</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr"/>
-      <c r="G1472" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="G1472" t="inlineStr"/>
       <c r="H1472" t="inlineStr">
         <is>
           <t>3</t>
@@ -47620,17 +47568,17 @@
     <row r="1473">
       <c r="A1473" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr"/>
@@ -47646,17 +47594,17 @@
     <row r="1474">
       <c r="A1474" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>2-Year BTP Short Term Auction</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr"/>
@@ -47672,17 +47620,17 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:10 AM</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BTP€i Auction</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr"/>
@@ -47698,33 +47646,37 @@
     <row r="1476">
       <c r="A1476" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>New Home SalesDEC</t>
+          <t>2-Year Schatz Auction</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr"/>
-      <c r="E1476" t="inlineStr"/>
+      <c r="E1476" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
       <c r="F1476" t="inlineStr"/>
       <c r="G1476" t="inlineStr"/>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1477">
       <c r="A1477" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1477" t="inlineStr">
@@ -47734,27 +47686,31 @@
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>New Home Sales MoMDEC</t>
+          <t>Durable Goods Orders MoMDEC</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr"/>
-      <c r="E1477" t="inlineStr"/>
+      <c r="E1477" t="inlineStr">
+        <is>
+          <t>-1.1%</t>
+        </is>
+      </c>
       <c r="F1477" t="inlineStr"/>
       <c r="G1477" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
@@ -47764,17 +47720,21 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexJAN</t>
+          <t>Durable Goods Orders Ex Transp MoMDEC</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr"/>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr"/>
-      <c r="G1478" t="inlineStr"/>
+      <c r="G1478" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H1478" t="inlineStr">
         <is>
           <t>2</t>
@@ -47784,7 +47744,7 @@
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1479" t="inlineStr">
@@ -47794,13 +47754,21 @@
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Durable Goods Orders ex Defense MoMDEC</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr"/>
-      <c r="E1479" t="inlineStr"/>
+      <c r="E1479" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F1479" t="inlineStr"/>
-      <c r="G1479" t="inlineStr"/>
+      <c r="G1479" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H1479" t="inlineStr">
         <is>
           <t>3</t>
@@ -47810,7 +47778,7 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B1480" t="inlineStr">
@@ -47820,11 +47788,15 @@
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Non Defense Goods Orders Ex AirDEC</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr"/>
-      <c r="E1480" t="inlineStr"/>
+      <c r="E1480" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="F1480" t="inlineStr"/>
       <c r="G1480" t="inlineStr"/>
       <c r="H1480" t="inlineStr">
@@ -47836,7 +47808,7 @@
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B1481" t="inlineStr">
@@ -47846,7 +47818,7 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Redbook YoYJAN/25</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr"/>
@@ -47862,7 +47834,7 @@
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
@@ -47872,81 +47844,73 @@
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr"/>
-      <c r="E1482" t="inlineStr"/>
+      <c r="E1482" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F1482" t="inlineStr"/>
       <c r="G1482" t="inlineStr"/>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>NAB Business ConfidenceDEC</t>
+          <t>House Price IndexNOV</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr"/>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>432.3</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr"/>
-      <c r="G1483" t="inlineStr">
+      <c r="G1483" t="inlineStr"/>
+      <c r="H1483" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1483" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>Unemployment Rate PrelQ4</t>
+          <t>House Price Index MoMNOV</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr"/>
-      <c r="E1484" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="E1484" t="inlineStr"/>
       <c r="F1484" t="inlineStr"/>
-      <c r="G1484" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
+      <c r="G1484" t="inlineStr"/>
       <c r="H1484" t="inlineStr">
         <is>
           <t>3</t>
@@ -47954,7 +47918,11 @@
       </c>
     </row>
     <row r="1485">
-      <c r="A1485" t="inlineStr"/>
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1485" t="inlineStr">
         <is>
           <t>US</t>
@@ -47962,21 +47930,17 @@
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>House Price Index YoYNOV</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr"/>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr"/>
-      <c r="G1485" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G1485" t="inlineStr"/>
       <c r="H1485" t="inlineStr">
         <is>
           <t>3</t>
@@ -47984,7 +47948,11 @@
       </c>
     </row>
     <row r="1486">
-      <c r="A1486" t="inlineStr"/>
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B1486" t="inlineStr">
         <is>
           <t>US</t>
@@ -47992,25 +47960,17 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr"/>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F1486" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1486" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F1486" t="inlineStr"/>
+      <c r="G1486" t="inlineStr"/>
       <c r="H1486" t="inlineStr">
         <is>
           <t>3</t>
@@ -48020,39 +47980,47 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>Tuesday January 28 2025</t>
-        </is>
-      </c>
-      <c r="B1487" t="inlineStr"/>
-      <c r="C1487" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B1487" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>CB Consumer ConfidenceJAN</t>
+        </is>
+      </c>
       <c r="D1487" t="inlineStr"/>
       <c r="E1487" t="inlineStr"/>
       <c r="F1487" t="inlineStr"/>
       <c r="G1487" t="inlineStr"/>
-      <c r="H1487" t="inlineStr"/>
+      <c r="H1487" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Richmond Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr"/>
-      <c r="E1488" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
+      <c r="E1488" t="inlineStr"/>
       <c r="F1488" t="inlineStr"/>
       <c r="G1488" t="inlineStr"/>
       <c r="H1488" t="inlineStr">
@@ -48064,29 +48032,29 @@
     <row r="1489">
       <c r="A1489" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr"/>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr"/>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
@@ -48098,29 +48066,29 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Richmond Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr"/>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr"/>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
@@ -48132,31 +48100,27 @@
     <row r="1491">
       <c r="A1491" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Dallas Fed Services IndexJAN</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr"/>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>-3%</t>
+          <t>9.6</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr"/>
-      <c r="G1491" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G1491" t="inlineStr"/>
       <c r="H1491" t="inlineStr">
         <is>
           <t>3</t>
@@ -48166,31 +48130,27 @@
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Leading Business Cycle Indicator MoMNOV</t>
+          <t>Dallas Fed Services Revenues IndexJAN</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr"/>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr"/>
-      <c r="G1492" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="G1492" t="inlineStr"/>
       <c r="H1492" t="inlineStr">
         <is>
           <t>3</t>
@@ -48200,87 +48160,79 @@
     <row r="1493">
       <c r="A1493" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Consumer ConfidenceJAN</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr"/>
-      <c r="E1493" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+      <c r="E1493" t="inlineStr"/>
       <c r="F1493" t="inlineStr"/>
       <c r="G1493" t="inlineStr"/>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Unemployment RateQ4</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr"/>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>4.532%</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr"/>
-      <c r="G1494" t="inlineStr">
-        <is>
-          <t>11.70%</t>
-        </is>
-      </c>
+      <c r="G1494" t="inlineStr"/>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1495">
       <c r="A1495" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>10-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Money SupplyDEC</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr"/>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>0.745%</t>
+          <t>$21.45T</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr"/>
@@ -48294,17 +48246,17 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>BTP Short Term Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/24</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr"/>
@@ -48313,152 +48265,172 @@
       <c r="G1496" t="inlineStr"/>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>2-Year BTP Short Term Auction</t>
+          <t>Inflation Rate YoYQ4</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr"/>
-      <c r="E1497" t="inlineStr"/>
+      <c r="E1497" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="F1497" t="inlineStr"/>
-      <c r="G1497" t="inlineStr"/>
+      <c r="G1497" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1498">
       <c r="A1498" t="inlineStr">
         <is>
-          <t>05:10 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>BTP€i Auction</t>
+          <t>Inflation Rate QoQQ4</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr"/>
-      <c r="E1498" t="inlineStr"/>
+      <c r="E1498" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1498" t="inlineStr"/>
-      <c r="G1498" t="inlineStr"/>
+      <c r="G1498" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1499">
       <c r="A1499" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>2-Year Schatz Auction</t>
+          <t>Monthly CPI IndicatorDEC</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr"/>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr"/>
-      <c r="G1499" t="inlineStr"/>
+      <c r="G1499" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1500">
       <c r="A1500" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMDEC</t>
+          <t>RBA Trimmed Mean CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr"/>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>-1.1%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr"/>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1501">
       <c r="A1501" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMDEC</t>
+          <t>RBA Trimmed Mean CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr"/>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr"/>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H1501" t="inlineStr">
@@ -48470,29 +48442,25 @@
     <row r="1502">
       <c r="A1502" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMDEC</t>
+          <t>CPIQ4</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr"/>
-      <c r="E1502" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E1502" t="inlineStr"/>
       <c r="F1502" t="inlineStr"/>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>139.1</t>
         </is>
       </c>
       <c r="H1502" t="inlineStr">
@@ -48504,23 +48472,23 @@
     <row r="1503">
       <c r="A1503" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirDEC</t>
+          <t>RBA Weighted Median CPI QoQQ4</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr"/>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1503" t="inlineStr"/>
@@ -48534,722 +48502,28 @@
     <row r="1504">
       <c r="A1504" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/25</t>
+          <t>RBA Weighted Median CPI YoYQ4</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr"/>
-      <c r="E1504" t="inlineStr"/>
+      <c r="E1504" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F1504" t="inlineStr"/>
       <c r="G1504" t="inlineStr"/>
       <c r="H1504" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1505">
-      <c r="A1505" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1505" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1505" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1505" t="inlineStr"/>
-      <c r="E1505" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1505" t="inlineStr"/>
-      <c r="G1505" t="inlineStr"/>
-      <c r="H1505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1506">
-      <c r="A1506" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1506" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1506" t="inlineStr">
-        <is>
-          <t>House Price IndexNOV</t>
-        </is>
-      </c>
-      <c r="D1506" t="inlineStr"/>
-      <c r="E1506" t="inlineStr">
-        <is>
-          <t>432.3</t>
-        </is>
-      </c>
-      <c r="F1506" t="inlineStr"/>
-      <c r="G1506" t="inlineStr"/>
-      <c r="H1506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1507" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1507" t="inlineStr">
-        <is>
-          <t>House Price Index MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1507" t="inlineStr"/>
-      <c r="E1507" t="inlineStr"/>
-      <c r="F1507" t="inlineStr"/>
-      <c r="G1507" t="inlineStr"/>
-      <c r="H1507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1508" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1508" t="inlineStr">
-        <is>
-          <t>House Price Index YoYNOV</t>
-        </is>
-      </c>
-      <c r="D1508" t="inlineStr"/>
-      <c r="E1508" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1508" t="inlineStr"/>
-      <c r="G1508" t="inlineStr"/>
-      <c r="H1508" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1509" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1509" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMNOV</t>
-        </is>
-      </c>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1510" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1510" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D1510" t="inlineStr"/>
-      <c r="E1510" t="inlineStr"/>
-      <c r="F1510" t="inlineStr"/>
-      <c r="G1510" t="inlineStr"/>
-      <c r="H1510" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1511" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1511" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1511" t="inlineStr"/>
-      <c r="E1511" t="inlineStr"/>
-      <c r="F1511" t="inlineStr"/>
-      <c r="G1511" t="inlineStr"/>
-      <c r="H1511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1512">
-      <c r="A1512" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1512" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1512" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1512" t="inlineStr"/>
-      <c r="E1512" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F1512" t="inlineStr"/>
-      <c r="G1512" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="H1512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1513">
-      <c r="A1513" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1513" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1513" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1513" t="inlineStr"/>
-      <c r="E1513" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F1513" t="inlineStr"/>
-      <c r="G1513" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1514">
-      <c r="A1514" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1514" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1514" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1514" t="inlineStr"/>
-      <c r="E1514" t="inlineStr">
-        <is>
-          <t>9.6</t>
-        </is>
-      </c>
-      <c r="F1514" t="inlineStr"/>
-      <c r="G1514" t="inlineStr"/>
-      <c r="H1514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1515">
-      <c r="A1515" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1515" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1515" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexJAN</t>
-        </is>
-      </c>
-      <c r="D1515" t="inlineStr"/>
-      <c r="E1515" t="inlineStr">
-        <is>
-          <t>13.8</t>
-        </is>
-      </c>
-      <c r="F1515" t="inlineStr"/>
-      <c r="G1515" t="inlineStr"/>
-      <c r="H1515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1516">
-      <c r="A1516" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1516" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1516" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr"/>
-      <c r="F1516" t="inlineStr"/>
-      <c r="G1516" t="inlineStr"/>
-      <c r="H1516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1517">
-      <c r="A1517" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1517" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1517" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="D1517" t="inlineStr"/>
-      <c r="E1517" t="inlineStr">
-        <is>
-          <t>4.532%</t>
-        </is>
-      </c>
-      <c r="F1517" t="inlineStr"/>
-      <c r="G1517" t="inlineStr"/>
-      <c r="H1517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1518">
-      <c r="A1518" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1518" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1518" t="inlineStr">
-        <is>
-          <t>Money SupplyDEC</t>
-        </is>
-      </c>
-      <c r="D1518" t="inlineStr"/>
-      <c r="E1518" t="inlineStr">
-        <is>
-          <t>$21.45T</t>
-        </is>
-      </c>
-      <c r="F1518" t="inlineStr"/>
-      <c r="G1518" t="inlineStr"/>
-      <c r="H1518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1519">
-      <c r="A1519" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1519" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1519" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/24</t>
-        </is>
-      </c>
-      <c r="D1519" t="inlineStr"/>
-      <c r="E1519" t="inlineStr"/>
-      <c r="F1519" t="inlineStr"/>
-      <c r="G1519" t="inlineStr"/>
-      <c r="H1519" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1520">
-      <c r="A1520" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1520" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1520" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1520" t="inlineStr"/>
-      <c r="E1520" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F1520" t="inlineStr"/>
-      <c r="G1520" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H1520" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1521">
-      <c r="A1521" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1521" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1521" t="inlineStr">
-        <is>
-          <t>Inflation Rate QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1521" t="inlineStr"/>
-      <c r="E1521" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1521" t="inlineStr"/>
-      <c r="G1521" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H1521" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1522">
-      <c r="A1522" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1522" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1522" t="inlineStr">
-        <is>
-          <t>Monthly CPI IndicatorDEC</t>
-        </is>
-      </c>
-      <c r="D1522" t="inlineStr"/>
-      <c r="E1522" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F1522" t="inlineStr"/>
-      <c r="G1522" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H1522" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1523" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1523" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1523" t="inlineStr"/>
-      <c r="E1523" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F1523" t="inlineStr"/>
-      <c r="G1523" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H1523" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1524" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1524" t="inlineStr">
-        <is>
-          <t>RBA Trimmed Mean CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1524" t="inlineStr"/>
-      <c r="E1524" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F1524" t="inlineStr"/>
-      <c r="G1524" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H1524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1525" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1525" t="inlineStr">
-        <is>
-          <t>CPIQ4</t>
-        </is>
-      </c>
-      <c r="D1525" t="inlineStr"/>
-      <c r="E1525" t="inlineStr"/>
-      <c r="F1525" t="inlineStr"/>
-      <c r="G1525" t="inlineStr">
-        <is>
-          <t>139.1</t>
-        </is>
-      </c>
-      <c r="H1525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1526" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1526" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI QoQQ4</t>
-        </is>
-      </c>
-      <c r="D1526" t="inlineStr"/>
-      <c r="E1526" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="F1526" t="inlineStr"/>
-      <c r="G1526" t="inlineStr"/>
-      <c r="H1526" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1527" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C1527" t="inlineStr">
-        <is>
-          <t>RBA Weighted Median CPI YoYQ4</t>
-        </is>
-      </c>
-      <c r="D1527" t="inlineStr"/>
-      <c r="E1527" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F1527" t="inlineStr"/>
-      <c r="G1527" t="inlineStr"/>
-      <c r="H1527" t="inlineStr">
         <is>
           <t>3</t>
         </is>
